--- a/processed_data/participants_cleaned/UPF_Barcelona_participant_data.xlsx
+++ b/processed_data/participants_cleaned/UPF_Barcelona_participant_data.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MarcColomer/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEF2441-1D59-4D40-B01B-8794DA1EFED8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23120" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5500" yWindow="980" windowWidth="29840" windowHeight="23300"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="142">
   <si>
     <t>lab</t>
   </si>
@@ -215,109 +214,6 @@
   </si>
   <si>
     <t>Spanish</t>
-  </si>
-  <si>
-    <t>This is sample data to show you how to report participant-level results from MB1. Download this spreadsheet to record your lab's data!</t>
-  </si>
-  <si>
-    <t>Notice that the first line (bll-manitoba, mb_001) corresponds to the first set of trial-level data in the trial-level template - every baby has 1 line here and ~18 lines there</t>
-  </si>
-  <si>
-    <t>The second tab below gives instructions/explanations of each field.</t>
-  </si>
-  <si>
-    <t>PLEASE NOTE: You should include a value for every column - don't leave cells blank! In some cases, a column may not apply, or your</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">lab may not be collecting a particular piece of information (e.g. the optional variables). We distinguish </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>two kinds</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> of mising data:</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NA - </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Not applicable. Enter this when the column </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>doesn't make sense</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> for a participant, such as the reason for an error when </t>
-    </r>
-  </si>
-  <si>
-    <t>there was no error, or the percentage of time exposed to language 3, if there is no language 3, the gender of ParentB, if there is no ParentB</t>
-  </si>
-  <si>
-    <t>NC -</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Not collected. Enter this when you </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>do not know</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>the value of this column for a participant, either because it is not</t>
-    </r>
-  </si>
-  <si>
-    <t>being collected in your lab's protocol, or when information makes sense but is unknown.  For instance, partcipant</t>
-  </si>
-  <si>
-    <t>mb_003's age was lost (Yikes! This probably won't happen) and information about their siblings wasn't collected, and</t>
-  </si>
-  <si>
-    <t>u-northern-mars is a lab that is not collecting info about race/ethnicity</t>
   </si>
   <si>
     <t>UPF_Barcelona</t>
@@ -554,8 +450,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -575,17 +471,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -661,7 +546,7 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -679,12 +564,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -696,13 +581,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -768,7 +653,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -820,7 +705,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1014,25 +899,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BF968"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A87" sqref="A68:XFD87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
@@ -1067,7 +952,7 @@
     <col min="58" max="58" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:58" ht="12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1225,18 +1110,18 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:58" ht="16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:58" ht="15">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1">
         <v>416</v>
@@ -1251,16 +1136,16 @@
         <v>53</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M2" s="8">
         <v>72</v>
@@ -1383,18 +1268,18 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
     </row>
-    <row r="3" spans="1:58" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:58" ht="15">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1">
         <v>423</v>
@@ -1406,19 +1291,19 @@
         <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M3" s="4">
         <v>83</v>
@@ -1541,18 +1426,18 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="1:58" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:58" ht="15">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E4" s="1">
         <v>410</v>
@@ -1567,13 +1452,13 @@
         <v>53</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>64</v>
@@ -1582,7 +1467,7 @@
         <v>53</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O4" s="1">
         <v>47</v>
@@ -1699,18 +1584,18 @@
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
     </row>
-    <row r="5" spans="1:58" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:58" ht="15">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1">
         <v>422</v>
@@ -1725,16 +1610,16 @@
         <v>53</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M5" s="8">
         <v>5</v>
@@ -1842,7 +1727,7 @@
         <v>59</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW5" s="1" t="s">
         <v>59</v>
@@ -1857,18 +1742,18 @@
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
     </row>
-    <row r="6" spans="1:58" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:58" ht="15">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E6" s="1">
         <v>375</v>
@@ -1883,13 +1768,13 @@
         <v>53</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>64</v>
@@ -1898,7 +1783,7 @@
         <v>61</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O6" s="1">
         <v>39</v>
@@ -2015,18 +1900,18 @@
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
     </row>
-    <row r="7" spans="1:58" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:58" ht="20.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1">
         <v>411</v>
@@ -2041,16 +1926,16 @@
         <v>53</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M7" s="8">
         <v>54</v>
@@ -2158,7 +2043,7 @@
         <v>59</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW7" s="1" t="s">
         <v>59</v>
@@ -2173,18 +2058,18 @@
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
     </row>
-    <row r="8" spans="1:58" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:58" ht="15">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1">
         <v>425</v>
@@ -2199,13 +2084,13 @@
         <v>53</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>64</v>
@@ -2214,7 +2099,7 @@
         <v>54</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O8" s="1">
         <v>46</v>
@@ -2331,18 +2216,18 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9" spans="1:58" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:58" ht="15">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E9" s="1">
         <v>378</v>
@@ -2357,16 +2242,16 @@
         <v>53</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M9" s="8">
         <v>58</v>
@@ -2489,18 +2374,18 @@
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
     </row>
-    <row r="10" spans="1:58" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:58" ht="15">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E10" s="1">
         <v>370</v>
@@ -2515,13 +2400,13 @@
         <v>53</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>64</v>
@@ -2530,7 +2415,7 @@
         <v>92</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O10" s="1">
         <v>8</v>
@@ -2647,18 +2532,18 @@
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
     </row>
-    <row r="11" spans="1:58" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:58" ht="15">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1">
         <v>373</v>
@@ -2670,19 +2555,19 @@
         <v>49</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M11" s="4">
         <v>80</v>
@@ -2790,7 +2675,7 @@
         <v>59</v>
       </c>
       <c r="AV11" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW11" s="1" t="s">
         <v>59</v>
@@ -2805,18 +2690,18 @@
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
     </row>
-    <row r="12" spans="1:58" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:58" ht="15">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E12" s="1">
         <v>397</v>
@@ -2831,13 +2716,13 @@
         <v>53</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>64</v>
@@ -2846,13 +2731,13 @@
         <v>71</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="O12" s="1">
         <v>28</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="1">
         <v>1</v>
@@ -2948,24 +2833,24 @@
         <v>59</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW12" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:58" ht="15">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E13" s="1">
         <v>390</v>
@@ -2980,16 +2865,16 @@
         <v>53</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M13" s="9">
         <v>98</v>
@@ -3097,24 +2982,24 @@
         <v>59</v>
       </c>
       <c r="AV13" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW13" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:58" ht="15">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E14" s="6">
         <v>386</v>
@@ -3129,16 +3014,16 @@
         <v>53</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M14" s="8">
         <v>100</v>
@@ -3246,24 +3131,24 @@
         <v>59</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW14" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:58" ht="15">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E15" s="6">
         <v>407</v>
@@ -3278,16 +3163,16 @@
         <v>53</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M15" s="8">
         <v>100</v>
@@ -3401,18 +3286,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:58" ht="15">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E16" s="6">
         <v>388</v>
@@ -3427,16 +3312,16 @@
         <v>53</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M16" s="8">
         <v>37</v>
@@ -3544,24 +3429,24 @@
         <v>59</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW16" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:49" ht="15">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E17" s="6">
         <v>447</v>
@@ -3576,13 +3461,13 @@
         <v>53</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>64</v>
@@ -3693,24 +3578,24 @@
         <v>59</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW17" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:49" ht="15">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E18" s="6">
         <v>464</v>
@@ -3725,16 +3610,16 @@
         <v>50</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M18" s="4">
         <v>99</v>
@@ -3842,24 +3727,24 @@
         <v>59</v>
       </c>
       <c r="AV18" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW18" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:49" ht="15">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E19" s="6">
         <v>451</v>
@@ -3874,16 +3759,16 @@
         <v>53</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M19" s="4">
         <v>93</v>
@@ -3997,18 +3882,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:49" ht="15">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E20" s="6">
         <v>391</v>
@@ -4023,16 +3908,16 @@
         <v>53</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M20" s="4">
         <v>65</v>
@@ -4146,18 +4031,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:49" ht="15">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E21" s="6">
         <v>435</v>
@@ -4172,16 +4057,16 @@
         <v>53</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M21" s="4">
         <v>99</v>
@@ -4295,18 +4180,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:49" ht="15">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E22" s="6">
         <v>396</v>
@@ -4321,13 +4206,13 @@
         <v>53</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>64</v>
@@ -4336,7 +4221,7 @@
         <v>92</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O22">
         <v>8</v>
@@ -4444,18 +4329,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:49" ht="15">
       <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E23" s="6">
         <v>369</v>
@@ -4467,19 +4352,19 @@
         <v>49</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M23" s="4">
         <v>81</v>
@@ -4593,18 +4478,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:49" ht="15">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E24" s="6">
         <v>473</v>
@@ -4619,13 +4504,13 @@
         <v>50</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>64</v>
@@ -4634,7 +4519,7 @@
         <v>89</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O24">
         <v>11</v>
@@ -4736,24 +4621,24 @@
         <v>59</v>
       </c>
       <c r="AV24" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW24" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:49" ht="15">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E25" s="6">
         <v>383</v>
@@ -4768,13 +4653,13 @@
         <v>53</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>64</v>
@@ -4783,7 +4668,7 @@
         <v>95</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O25">
         <v>5</v>
@@ -4891,18 +4776,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:49" ht="15">
       <c r="A26" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E26" s="6">
         <v>470</v>
@@ -4917,13 +4802,13 @@
         <v>50</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>64</v>
@@ -4932,7 +4817,7 @@
         <v>69</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O26">
         <v>31</v>
@@ -5034,24 +4919,24 @@
         <v>59</v>
       </c>
       <c r="AV26" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW26" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:49" ht="15">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E27" s="6">
         <v>454</v>
@@ -5066,13 +4951,13 @@
         <v>53</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>64</v>
@@ -5081,7 +4966,7 @@
         <v>55</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O27">
         <v>45</v>
@@ -5183,24 +5068,24 @@
         <v>59</v>
       </c>
       <c r="AV27" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW27" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:49" ht="15">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E28" s="6">
         <v>469</v>
@@ -5215,13 +5100,13 @@
         <v>50</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>64</v>
@@ -5230,7 +5115,7 @@
         <v>60</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O28">
         <v>40</v>
@@ -5332,24 +5217,24 @@
         <v>59</v>
       </c>
       <c r="AV28" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW28" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:49" ht="15">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E29" s="6">
         <v>394</v>
@@ -5364,16 +5249,16 @@
         <v>53</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M29" s="8">
         <v>99</v>
@@ -5487,18 +5372,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:49" ht="15">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E30" s="6">
         <v>390</v>
@@ -5513,16 +5398,16 @@
         <v>53</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M30" s="8">
         <v>100</v>
@@ -5636,18 +5521,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:49" ht="15">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E31" s="6">
         <v>391</v>
@@ -5659,16 +5544,16 @@
         <v>49</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>64</v>
@@ -5677,13 +5562,13 @@
         <v>74</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="O31" s="7">
         <v>17</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -5779,24 +5664,24 @@
         <v>59</v>
       </c>
       <c r="AV31" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW31" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:49" ht="15">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E32" s="6">
         <v>441</v>
@@ -5808,19 +5693,19 @@
         <v>49</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M32" s="4">
         <v>78</v>
@@ -5928,24 +5813,24 @@
         <v>59</v>
       </c>
       <c r="AV32" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW32" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:49" ht="15">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E33" s="6">
         <v>373</v>
@@ -5960,13 +5845,13 @@
         <v>53</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>64</v>
@@ -5975,7 +5860,7 @@
         <v>94</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="O33" s="7">
         <v>6</v>
@@ -6077,24 +5962,24 @@
         <v>59</v>
       </c>
       <c r="AV33" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW33" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:49" ht="15">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E34" s="6">
         <v>420</v>
@@ -6109,13 +5994,13 @@
         <v>53</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>64</v>
@@ -6226,24 +6111,24 @@
         <v>59</v>
       </c>
       <c r="AV34" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW34" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:49" ht="15">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E35" s="6">
         <v>432</v>
@@ -6258,16 +6143,16 @@
         <v>53</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M35" s="8">
         <v>63</v>
@@ -6381,18 +6266,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:49" ht="15">
       <c r="A36" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E36" s="6">
         <v>454</v>
@@ -6407,16 +6292,16 @@
         <v>53</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M36" s="8">
         <v>99</v>
@@ -6530,18 +6415,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:49" ht="15">
       <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E37" s="6">
         <v>387</v>
@@ -6556,16 +6441,16 @@
         <v>53</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M37" s="8">
         <v>98</v>
@@ -6673,24 +6558,24 @@
         <v>59</v>
       </c>
       <c r="AV37" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AW37" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:49" ht="15">
       <c r="A38" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E38" s="6">
         <v>377</v>
@@ -6705,13 +6590,13 @@
         <v>53</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>64</v>
@@ -6720,7 +6605,7 @@
         <v>64</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O38" s="7">
         <v>36</v>
@@ -6828,18 +6713,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:49" ht="15">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E39" s="6">
         <v>377</v>
@@ -6854,16 +6739,16 @@
         <v>53</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M39" s="8">
         <v>100</v>
@@ -6977,18 +6862,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:49" ht="15">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E40" s="6">
         <v>379</v>
@@ -7003,16 +6888,16 @@
         <v>53</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M40" s="4">
         <v>96</v>
@@ -7126,18 +7011,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:49" ht="15">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E41" s="6">
         <v>375</v>
@@ -7152,13 +7037,13 @@
         <v>53</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>64</v>
@@ -7167,7 +7052,7 @@
         <v>61</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O41">
         <v>39</v>
@@ -7275,18 +7160,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:49" ht="15">
       <c r="A42" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E42" s="6">
         <v>384</v>
@@ -7301,13 +7186,13 @@
         <v>53</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>52</v>
@@ -7316,7 +7201,7 @@
         <v>62</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="O42">
         <v>36</v>
@@ -7424,18 +7309,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:49" ht="15">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E43" s="6">
         <v>387</v>
@@ -7450,16 +7335,16 @@
         <v>53</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M43" s="8">
         <v>100</v>
@@ -7573,18 +7458,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:49" ht="15">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E44" s="6">
         <v>387</v>
@@ -7596,19 +7481,19 @@
         <v>49</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M44" s="4">
         <v>77</v>
@@ -7722,18 +7607,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:49" ht="15">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E45" s="6">
         <v>387</v>
@@ -7748,16 +7633,16 @@
         <v>53</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M45" s="8">
         <v>100</v>
@@ -7871,18 +7756,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:49" ht="15">
       <c r="A46" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E46" s="6">
         <v>373</v>
@@ -7897,16 +7782,16 @@
         <v>53</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M46" s="8">
         <v>100</v>
@@ -8020,18 +7905,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:49" ht="15">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E47" s="6">
         <v>444</v>
@@ -8046,16 +7931,16 @@
         <v>53</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M47" s="8">
         <v>73</v>
@@ -8169,18 +8054,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:49" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:49" ht="15">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E48" s="6">
         <v>455</v>
@@ -8195,16 +8080,16 @@
         <v>53</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M48" s="8">
         <v>75</v>
@@ -8318,4645 +8203,4619 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="25:27" ht="12">
       <c r="Y49" s="15"/>
       <c r="Z49" s="18"/>
       <c r="AA49" s="15"/>
     </row>
-    <row r="50" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="25:27" ht="12">
       <c r="Y50" s="15"/>
       <c r="Z50" s="18"/>
       <c r="AA50" s="15"/>
     </row>
-    <row r="51" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="25:27" ht="12">
       <c r="Y51" s="15"/>
       <c r="Z51" s="18"/>
       <c r="AA51" s="15"/>
     </row>
-    <row r="52" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="25:27" ht="12">
       <c r="Y52" s="15"/>
       <c r="Z52" s="18"/>
       <c r="AA52" s="15"/>
     </row>
-    <row r="53" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="25:27" ht="12">
       <c r="Y53" s="15"/>
       <c r="Z53" s="18"/>
       <c r="AA53" s="15"/>
     </row>
-    <row r="54" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="25:27" ht="12">
       <c r="Y54" s="15"/>
       <c r="Z54" s="18"/>
       <c r="AA54" s="15"/>
     </row>
-    <row r="55" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="25:27" ht="12">
       <c r="Y55" s="15"/>
       <c r="Z55" s="18"/>
       <c r="AA55" s="15"/>
     </row>
-    <row r="56" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="25:27" ht="12">
       <c r="Y56" s="15"/>
       <c r="Z56" s="18"/>
       <c r="AA56" s="15"/>
     </row>
-    <row r="57" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="25:27" ht="12">
       <c r="Y57" s="15"/>
       <c r="Z57" s="18"/>
       <c r="AA57" s="15"/>
     </row>
-    <row r="58" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="25:27" ht="12">
       <c r="Y58" s="15"/>
       <c r="Z58" s="18"/>
       <c r="AA58" s="15"/>
     </row>
-    <row r="59" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="25:27" ht="12">
       <c r="Y59" s="15"/>
       <c r="Z59" s="18"/>
       <c r="AA59" s="15"/>
     </row>
-    <row r="60" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="25:27" ht="12">
       <c r="Y60" s="15"/>
       <c r="Z60" s="18"/>
       <c r="AA60" s="15"/>
     </row>
-    <row r="61" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="25:27" ht="12">
       <c r="Y61" s="15"/>
       <c r="Z61" s="18"/>
       <c r="AA61" s="15"/>
     </row>
-    <row r="62" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="25:27" ht="12">
       <c r="Y62" s="15"/>
       <c r="Z62" s="18"/>
       <c r="AA62" s="15"/>
     </row>
-    <row r="63" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="25:27" ht="12">
       <c r="Y63" s="15"/>
       <c r="Z63" s="18"/>
       <c r="AA63" s="15"/>
     </row>
-    <row r="64" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="25:27" ht="12">
       <c r="Y64" s="15"/>
       <c r="Z64" s="18"/>
       <c r="AA64" s="15"/>
     </row>
-    <row r="65" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:27" ht="12">
       <c r="Y65" s="15"/>
       <c r="Z65" s="18"/>
       <c r="AA65" s="15"/>
     </row>
-    <row r="66" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:27" ht="12">
       <c r="Y66" s="15"/>
       <c r="Z66" s="18"/>
       <c r="AA66" s="15"/>
     </row>
-    <row r="67" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:27" ht="12">
       <c r="Y67" s="15"/>
       <c r="Z67" s="18"/>
       <c r="AA67" s="15"/>
     </row>
-    <row r="68" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:27" ht="12">
       <c r="Y68" s="15"/>
       <c r="Z68" s="18"/>
       <c r="AA68" s="15"/>
     </row>
-    <row r="69" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:27" ht="12">
       <c r="Y69" s="15"/>
       <c r="Z69" s="18"/>
       <c r="AA69" s="15"/>
     </row>
-    <row r="70" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:27" ht="12">
       <c r="Y70" s="15"/>
       <c r="Z70" s="18"/>
       <c r="AA70" s="15"/>
     </row>
-    <row r="71" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:27" ht="12">
       <c r="Y71" s="15"/>
       <c r="Z71" s="18"/>
       <c r="AA71" s="15"/>
     </row>
-    <row r="72" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:27" ht="12">
       <c r="Y72" s="15"/>
       <c r="Z72" s="18"/>
       <c r="AA72" s="15"/>
     </row>
-    <row r="73" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:27" ht="12">
       <c r="Y73" s="15"/>
       <c r="Z73" s="18"/>
       <c r="AA73" s="15"/>
     </row>
-    <row r="74" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
-        <v>65</v>
-      </c>
+    <row r="74" spans="1:27" ht="12">
+      <c r="A74" s="1"/>
       <c r="Y74" s="15"/>
       <c r="Z74" s="18"/>
       <c r="AA74" s="15"/>
     </row>
-    <row r="75" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>66</v>
-      </c>
+    <row r="75" spans="1:27" ht="12">
+      <c r="A75" s="1"/>
       <c r="Y75" s="15"/>
       <c r="Z75" s="18"/>
       <c r="AA75" s="15"/>
     </row>
-    <row r="76" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
-        <v>67</v>
-      </c>
+    <row r="76" spans="1:27" ht="12">
+      <c r="A76" s="1"/>
       <c r="Y76" s="15"/>
       <c r="Z76" s="18"/>
       <c r="AA76" s="15"/>
     </row>
-    <row r="77" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:27" ht="12">
       <c r="A77" s="1"/>
       <c r="Y77" s="15"/>
       <c r="Z77" s="18"/>
       <c r="AA77" s="15"/>
     </row>
-    <row r="78" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
-        <v>68</v>
-      </c>
+    <row r="78" spans="1:27" ht="12">
+      <c r="A78" s="1"/>
       <c r="Y78" s="15"/>
       <c r="Z78" s="18"/>
       <c r="AA78" s="15"/>
     </row>
-    <row r="79" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
-        <v>69</v>
-      </c>
+    <row r="79" spans="1:27" ht="12">
+      <c r="A79" s="1"/>
       <c r="Y79" s="15"/>
       <c r="Z79" s="18"/>
       <c r="AA79" s="15"/>
     </row>
-    <row r="80" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:27" ht="12">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="18"/>
       <c r="AA80" s="15"/>
     </row>
-    <row r="81" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>71</v>
-      </c>
+    <row r="81" spans="1:27" ht="12">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="18"/>
       <c r="AA81" s="15"/>
     </row>
-    <row r="82" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:27" ht="12">
       <c r="A82" s="1"/>
-      <c r="B82" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="B82" s="2"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="18"/>
       <c r="AA82" s="15"/>
     </row>
-    <row r="83" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>74</v>
-      </c>
+    <row r="83" spans="1:27" ht="12">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="18"/>
       <c r="AA83" s="15"/>
     </row>
-    <row r="84" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="B84" s="1" t="s">
-        <v>75</v>
-      </c>
+    <row r="84" spans="1:27" ht="12">
+      <c r="B84" s="1"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="18"/>
       <c r="AA84" s="15"/>
     </row>
-    <row r="85" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="B85" s="1" t="s">
-        <v>76</v>
-      </c>
+    <row r="85" spans="1:27" ht="12">
+      <c r="B85" s="1"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="18"/>
       <c r="AA85" s="15"/>
     </row>
-    <row r="86" spans="1:27" ht="13" x14ac:dyDescent="0.15">
-      <c r="B86" s="2" t="s">
-        <v>77</v>
-      </c>
+    <row r="86" spans="1:27" ht="12">
+      <c r="B86" s="2"/>
       <c r="Y86" s="15"/>
       <c r="Z86" s="18"/>
       <c r="AA86" s="15"/>
     </row>
-    <row r="87" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:27" ht="12">
       <c r="Y87" s="15"/>
       <c r="Z87" s="18"/>
       <c r="AA87" s="15"/>
     </row>
-    <row r="88" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:27" ht="12">
       <c r="Y88" s="15"/>
       <c r="Z88" s="18"/>
       <c r="AA88" s="15"/>
     </row>
-    <row r="89" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:27" ht="12">
       <c r="Y89" s="15"/>
       <c r="Z89" s="18"/>
       <c r="AA89" s="15"/>
     </row>
-    <row r="90" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:27" ht="12">
       <c r="Y90" s="15"/>
       <c r="Z90" s="18"/>
       <c r="AA90" s="15"/>
     </row>
-    <row r="91" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:27" ht="12">
       <c r="Y91" s="15"/>
       <c r="Z91" s="18"/>
       <c r="AA91" s="15"/>
     </row>
-    <row r="92" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:27" ht="12">
       <c r="Y92" s="15"/>
       <c r="Z92" s="18"/>
       <c r="AA92" s="15"/>
     </row>
-    <row r="93" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:27" ht="12">
       <c r="Y93" s="15"/>
       <c r="Z93" s="18"/>
       <c r="AA93" s="15"/>
     </row>
-    <row r="94" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:27" ht="12">
       <c r="Y94" s="15"/>
       <c r="Z94" s="18"/>
       <c r="AA94" s="15"/>
     </row>
-    <row r="95" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:27" ht="12">
       <c r="Y95" s="15"/>
       <c r="Z95" s="18"/>
       <c r="AA95" s="15"/>
     </row>
-    <row r="96" spans="1:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:27" ht="12">
       <c r="Y96" s="15"/>
       <c r="Z96" s="18"/>
       <c r="AA96" s="15"/>
     </row>
-    <row r="97" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="25:27" ht="12">
       <c r="Y97" s="15"/>
       <c r="Z97" s="18"/>
       <c r="AA97" s="15"/>
     </row>
-    <row r="98" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="25:27" ht="12">
       <c r="Y98" s="15"/>
       <c r="Z98" s="18"/>
       <c r="AA98" s="15"/>
     </row>
-    <row r="99" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="25:27" ht="12">
       <c r="Y99" s="15"/>
       <c r="Z99" s="18"/>
       <c r="AA99" s="15"/>
     </row>
-    <row r="100" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="25:27" ht="12">
       <c r="Y100" s="15"/>
       <c r="Z100" s="18"/>
       <c r="AA100" s="15"/>
     </row>
-    <row r="101" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="25:27" ht="12">
       <c r="Y101" s="15"/>
       <c r="Z101" s="18"/>
       <c r="AA101" s="15"/>
     </row>
-    <row r="102" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="25:27" ht="12">
       <c r="Y102" s="15"/>
       <c r="Z102" s="18"/>
       <c r="AA102" s="15"/>
     </row>
-    <row r="103" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="25:27" ht="12">
       <c r="Y103" s="15"/>
       <c r="Z103" s="18"/>
       <c r="AA103" s="15"/>
     </row>
-    <row r="104" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="25:27" ht="12">
       <c r="Y104" s="15"/>
       <c r="Z104" s="18"/>
       <c r="AA104" s="15"/>
     </row>
-    <row r="105" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="25:27" ht="12">
       <c r="Y105" s="15"/>
       <c r="Z105" s="18"/>
       <c r="AA105" s="15"/>
     </row>
-    <row r="106" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="25:27" ht="12">
       <c r="Y106" s="15"/>
       <c r="Z106" s="18"/>
       <c r="AA106" s="15"/>
     </row>
-    <row r="107" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="25:27" ht="12">
       <c r="Y107" s="15"/>
       <c r="Z107" s="18"/>
       <c r="AA107" s="15"/>
     </row>
-    <row r="108" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="25:27" ht="12">
       <c r="Y108" s="15"/>
       <c r="Z108" s="18"/>
       <c r="AA108" s="15"/>
     </row>
-    <row r="109" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="25:27" ht="12">
       <c r="Y109" s="15"/>
       <c r="Z109" s="18"/>
       <c r="AA109" s="15"/>
     </row>
-    <row r="110" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="25:27" ht="12">
       <c r="Y110" s="15"/>
       <c r="Z110" s="18"/>
       <c r="AA110" s="15"/>
     </row>
-    <row r="111" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="25:27" ht="12">
       <c r="Y111" s="15"/>
       <c r="Z111" s="18"/>
       <c r="AA111" s="15"/>
     </row>
-    <row r="112" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="25:27" ht="12">
       <c r="Y112" s="15"/>
       <c r="Z112" s="18"/>
       <c r="AA112" s="15"/>
     </row>
-    <row r="113" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="25:27" ht="12">
       <c r="Y113" s="15"/>
       <c r="Z113" s="18"/>
       <c r="AA113" s="15"/>
     </row>
-    <row r="114" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="25:27" ht="12">
       <c r="Y114" s="15"/>
       <c r="Z114" s="18"/>
       <c r="AA114" s="15"/>
     </row>
-    <row r="115" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="25:27" ht="12">
       <c r="Y115" s="15"/>
       <c r="Z115" s="18"/>
       <c r="AA115" s="15"/>
     </row>
-    <row r="116" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="25:27" ht="12">
       <c r="Y116" s="15"/>
       <c r="Z116" s="18"/>
       <c r="AA116" s="15"/>
     </row>
-    <row r="117" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="25:27" ht="12">
       <c r="Y117" s="15"/>
       <c r="Z117" s="18"/>
       <c r="AA117" s="15"/>
     </row>
-    <row r="118" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="25:27" ht="12">
       <c r="Y118" s="15"/>
       <c r="Z118" s="18"/>
       <c r="AA118" s="15"/>
     </row>
-    <row r="119" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="25:27" ht="12">
       <c r="Y119" s="15"/>
       <c r="Z119" s="18"/>
       <c r="AA119" s="15"/>
     </row>
-    <row r="120" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="25:27" ht="12">
       <c r="Y120" s="15"/>
       <c r="Z120" s="18"/>
       <c r="AA120" s="15"/>
     </row>
-    <row r="121" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="25:27" ht="12">
       <c r="Y121" s="15"/>
       <c r="Z121" s="18"/>
       <c r="AA121" s="15"/>
     </row>
-    <row r="122" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="25:27" ht="12">
       <c r="Y122" s="15"/>
       <c r="Z122" s="18"/>
       <c r="AA122" s="15"/>
     </row>
-    <row r="123" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="25:27" ht="12">
       <c r="Y123" s="15"/>
       <c r="Z123" s="18"/>
       <c r="AA123" s="15"/>
     </row>
-    <row r="124" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="25:27" ht="12">
       <c r="Y124" s="15"/>
       <c r="Z124" s="18"/>
       <c r="AA124" s="15"/>
     </row>
-    <row r="125" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="25:27" ht="12">
       <c r="Y125" s="15"/>
       <c r="Z125" s="18"/>
       <c r="AA125" s="15"/>
     </row>
-    <row r="126" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="25:27" ht="12">
       <c r="Y126" s="15"/>
       <c r="Z126" s="18"/>
       <c r="AA126" s="15"/>
     </row>
-    <row r="127" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="25:27" ht="12">
       <c r="Y127" s="15"/>
       <c r="Z127" s="18"/>
       <c r="AA127" s="15"/>
     </row>
-    <row r="128" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="25:27" ht="12">
       <c r="Y128" s="15"/>
       <c r="Z128" s="18"/>
       <c r="AA128" s="15"/>
     </row>
-    <row r="129" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="25:27" ht="12">
       <c r="Y129" s="15"/>
       <c r="Z129" s="18"/>
       <c r="AA129" s="15"/>
     </row>
-    <row r="130" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="25:27" ht="12">
       <c r="Y130" s="15"/>
       <c r="Z130" s="18"/>
       <c r="AA130" s="15"/>
     </row>
-    <row r="131" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="25:27" ht="12">
       <c r="Y131" s="15"/>
       <c r="Z131" s="18"/>
       <c r="AA131" s="15"/>
     </row>
-    <row r="132" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="25:27" ht="12">
       <c r="Y132" s="15"/>
       <c r="Z132" s="18"/>
       <c r="AA132" s="15"/>
     </row>
-    <row r="133" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="25:27" ht="12">
       <c r="Y133" s="15"/>
       <c r="Z133" s="18"/>
       <c r="AA133" s="15"/>
     </row>
-    <row r="134" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="25:27" ht="12">
       <c r="Y134" s="15"/>
       <c r="Z134" s="18"/>
       <c r="AA134" s="15"/>
     </row>
-    <row r="135" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="25:27" ht="12">
       <c r="Y135" s="15"/>
       <c r="Z135" s="18"/>
       <c r="AA135" s="15"/>
     </row>
-    <row r="136" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="25:27" ht="12">
       <c r="Y136" s="15"/>
       <c r="Z136" s="18"/>
       <c r="AA136" s="15"/>
     </row>
-    <row r="137" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="25:27" ht="12">
       <c r="Y137" s="15"/>
       <c r="Z137" s="18"/>
       <c r="AA137" s="15"/>
     </row>
-    <row r="138" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="25:27" ht="12">
       <c r="Y138" s="15"/>
       <c r="Z138" s="18"/>
       <c r="AA138" s="15"/>
     </row>
-    <row r="139" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="25:27" ht="12">
       <c r="Y139" s="15"/>
       <c r="Z139" s="18"/>
       <c r="AA139" s="15"/>
     </row>
-    <row r="140" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="25:27" ht="12">
       <c r="Y140" s="15"/>
       <c r="Z140" s="18"/>
       <c r="AA140" s="15"/>
     </row>
-    <row r="141" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="25:27" ht="12">
       <c r="Y141" s="15"/>
       <c r="Z141" s="18"/>
       <c r="AA141" s="15"/>
     </row>
-    <row r="142" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="25:27" ht="12">
       <c r="Y142" s="15"/>
       <c r="Z142" s="18"/>
       <c r="AA142" s="15"/>
     </row>
-    <row r="143" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="25:27" ht="12">
       <c r="Y143" s="15"/>
       <c r="Z143" s="18"/>
       <c r="AA143" s="15"/>
     </row>
-    <row r="144" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="25:27" ht="12">
       <c r="Y144" s="15"/>
       <c r="Z144" s="18"/>
       <c r="AA144" s="15"/>
     </row>
-    <row r="145" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="25:27" ht="12">
       <c r="Y145" s="15"/>
       <c r="Z145" s="18"/>
       <c r="AA145" s="15"/>
     </row>
-    <row r="146" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="25:27" ht="12">
       <c r="Y146" s="15"/>
       <c r="Z146" s="18"/>
       <c r="AA146" s="15"/>
     </row>
-    <row r="147" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="25:27" ht="12">
       <c r="Y147" s="15"/>
       <c r="Z147" s="18"/>
       <c r="AA147" s="15"/>
     </row>
-    <row r="148" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="25:27" ht="12">
       <c r="Y148" s="15"/>
       <c r="Z148" s="18"/>
       <c r="AA148" s="15"/>
     </row>
-    <row r="149" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="25:27" ht="12">
       <c r="Y149" s="15"/>
       <c r="Z149" s="18"/>
       <c r="AA149" s="15"/>
     </row>
-    <row r="150" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="25:27" ht="12">
       <c r="Y150" s="15"/>
       <c r="Z150" s="18"/>
       <c r="AA150" s="15"/>
     </row>
-    <row r="151" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="25:27" ht="12">
       <c r="Y151" s="15"/>
       <c r="Z151" s="18"/>
       <c r="AA151" s="15"/>
     </row>
-    <row r="152" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="25:27" ht="12">
       <c r="Y152" s="15"/>
       <c r="Z152" s="18"/>
       <c r="AA152" s="15"/>
     </row>
-    <row r="153" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="25:27" ht="12">
       <c r="Y153" s="15"/>
       <c r="Z153" s="18"/>
       <c r="AA153" s="15"/>
     </row>
-    <row r="154" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="25:27" ht="12">
       <c r="Y154" s="15"/>
       <c r="Z154" s="18"/>
       <c r="AA154" s="15"/>
     </row>
-    <row r="155" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="25:27" ht="12">
       <c r="Y155" s="15"/>
       <c r="Z155" s="18"/>
       <c r="AA155" s="15"/>
     </row>
-    <row r="156" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="25:27" ht="12">
       <c r="Y156" s="15"/>
       <c r="Z156" s="18"/>
       <c r="AA156" s="15"/>
     </row>
-    <row r="157" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="25:27" ht="12">
       <c r="Y157" s="15"/>
       <c r="Z157" s="18"/>
       <c r="AA157" s="15"/>
     </row>
-    <row r="158" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="25:27" ht="12">
       <c r="Y158" s="15"/>
       <c r="Z158" s="18"/>
       <c r="AA158" s="15"/>
     </row>
-    <row r="159" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="25:27" ht="12">
       <c r="Y159" s="15"/>
       <c r="Z159" s="18"/>
       <c r="AA159" s="15"/>
     </row>
-    <row r="160" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="25:27" ht="12">
       <c r="Y160" s="15"/>
       <c r="Z160" s="18"/>
       <c r="AA160" s="15"/>
     </row>
-    <row r="161" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="25:27" ht="12">
       <c r="Y161" s="15"/>
       <c r="Z161" s="18"/>
       <c r="AA161" s="15"/>
     </row>
-    <row r="162" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="25:27" ht="12">
       <c r="Y162" s="15"/>
       <c r="Z162" s="18"/>
       <c r="AA162" s="15"/>
     </row>
-    <row r="163" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="25:27" ht="12">
       <c r="Y163" s="15"/>
       <c r="Z163" s="18"/>
       <c r="AA163" s="15"/>
     </row>
-    <row r="164" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="25:27" ht="12">
       <c r="Y164" s="15"/>
       <c r="Z164" s="18"/>
       <c r="AA164" s="15"/>
     </row>
-    <row r="165" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="25:27" ht="12">
       <c r="Y165" s="15"/>
       <c r="Z165" s="18"/>
       <c r="AA165" s="15"/>
     </row>
-    <row r="166" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="25:27" ht="12">
       <c r="Y166" s="15"/>
       <c r="Z166" s="18"/>
       <c r="AA166" s="15"/>
     </row>
-    <row r="167" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="25:27" ht="12">
       <c r="Y167" s="15"/>
       <c r="Z167" s="18"/>
       <c r="AA167" s="15"/>
     </row>
-    <row r="168" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="25:27" ht="12">
       <c r="Y168" s="15"/>
       <c r="Z168" s="18"/>
       <c r="AA168" s="15"/>
     </row>
-    <row r="169" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="25:27" ht="12">
       <c r="Y169" s="15"/>
       <c r="Z169" s="18"/>
       <c r="AA169" s="15"/>
     </row>
-    <row r="170" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="25:27" ht="12">
       <c r="Y170" s="15"/>
       <c r="Z170" s="18"/>
       <c r="AA170" s="15"/>
     </row>
-    <row r="171" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="25:27" ht="12">
       <c r="Y171" s="15"/>
       <c r="Z171" s="18"/>
       <c r="AA171" s="15"/>
     </row>
-    <row r="172" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="25:27" ht="12">
       <c r="Y172" s="15"/>
       <c r="Z172" s="18"/>
       <c r="AA172" s="15"/>
     </row>
-    <row r="173" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="25:27" ht="12">
       <c r="Y173" s="15"/>
       <c r="Z173" s="18"/>
       <c r="AA173" s="15"/>
     </row>
-    <row r="174" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="25:27" ht="12">
       <c r="Y174" s="15"/>
       <c r="Z174" s="18"/>
       <c r="AA174" s="15"/>
     </row>
-    <row r="175" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="25:27" ht="12">
       <c r="Y175" s="15"/>
       <c r="Z175" s="18"/>
       <c r="AA175" s="15"/>
     </row>
-    <row r="176" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="25:27" ht="12">
       <c r="Y176" s="15"/>
       <c r="Z176" s="18"/>
       <c r="AA176" s="15"/>
     </row>
-    <row r="177" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="25:27" ht="12">
       <c r="Y177" s="15"/>
       <c r="Z177" s="18"/>
       <c r="AA177" s="15"/>
     </row>
-    <row r="178" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="25:27" ht="12">
       <c r="Y178" s="15"/>
       <c r="Z178" s="18"/>
       <c r="AA178" s="15"/>
     </row>
-    <row r="179" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="25:27" ht="12">
       <c r="Y179" s="15"/>
       <c r="Z179" s="18"/>
       <c r="AA179" s="15"/>
     </row>
-    <row r="180" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="25:27" ht="12">
       <c r="Y180" s="15"/>
       <c r="Z180" s="18"/>
       <c r="AA180" s="15"/>
     </row>
-    <row r="181" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="25:27" ht="12">
       <c r="Y181" s="15"/>
       <c r="Z181" s="18"/>
       <c r="AA181" s="15"/>
     </row>
-    <row r="182" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="25:27" ht="12">
       <c r="Y182" s="15"/>
       <c r="Z182" s="18"/>
       <c r="AA182" s="15"/>
     </row>
-    <row r="183" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="25:27" ht="12">
       <c r="Y183" s="15"/>
       <c r="Z183" s="18"/>
       <c r="AA183" s="15"/>
     </row>
-    <row r="184" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="25:27" ht="12">
       <c r="Y184" s="15"/>
       <c r="Z184" s="18"/>
       <c r="AA184" s="15"/>
     </row>
-    <row r="185" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="25:27" ht="12">
       <c r="Y185" s="15"/>
       <c r="Z185" s="18"/>
       <c r="AA185" s="15"/>
     </row>
-    <row r="186" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="25:27" ht="12">
       <c r="Y186" s="15"/>
       <c r="Z186" s="18"/>
       <c r="AA186" s="15"/>
     </row>
-    <row r="187" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="25:27" ht="12">
       <c r="Y187" s="15"/>
       <c r="Z187" s="18"/>
       <c r="AA187" s="15"/>
     </row>
-    <row r="188" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="25:27" ht="12">
       <c r="Y188" s="15"/>
       <c r="Z188" s="18"/>
       <c r="AA188" s="15"/>
     </row>
-    <row r="189" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="25:27" ht="12">
       <c r="Y189" s="15"/>
       <c r="Z189" s="18"/>
       <c r="AA189" s="15"/>
     </row>
-    <row r="190" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="25:27" ht="12">
       <c r="Y190" s="15"/>
       <c r="Z190" s="18"/>
       <c r="AA190" s="15"/>
     </row>
-    <row r="191" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="25:27" ht="12">
       <c r="Y191" s="15"/>
       <c r="Z191" s="18"/>
       <c r="AA191" s="15"/>
     </row>
-    <row r="192" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="25:27" ht="12">
       <c r="Y192" s="15"/>
       <c r="Z192" s="18"/>
       <c r="AA192" s="15"/>
     </row>
-    <row r="193" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="25:27" ht="12">
       <c r="Y193" s="15"/>
       <c r="Z193" s="18"/>
       <c r="AA193" s="15"/>
     </row>
-    <row r="194" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="25:27" ht="12">
       <c r="Y194" s="15"/>
       <c r="Z194" s="18"/>
       <c r="AA194" s="15"/>
     </row>
-    <row r="195" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="25:27" ht="12">
       <c r="Y195" s="15"/>
       <c r="Z195" s="18"/>
       <c r="AA195" s="15"/>
     </row>
-    <row r="196" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="25:27" ht="12">
       <c r="Y196" s="15"/>
       <c r="Z196" s="18"/>
       <c r="AA196" s="15"/>
     </row>
-    <row r="197" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="25:27" ht="12">
       <c r="Y197" s="15"/>
       <c r="Z197" s="18"/>
       <c r="AA197" s="15"/>
     </row>
-    <row r="198" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="25:27" ht="12">
       <c r="Y198" s="15"/>
       <c r="Z198" s="18"/>
       <c r="AA198" s="15"/>
     </row>
-    <row r="199" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="25:27" ht="12">
       <c r="Y199" s="15"/>
       <c r="Z199" s="18"/>
       <c r="AA199" s="15"/>
     </row>
-    <row r="200" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="25:27" ht="12">
       <c r="Y200" s="15"/>
       <c r="Z200" s="18"/>
       <c r="AA200" s="15"/>
     </row>
-    <row r="201" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="25:27" ht="12">
       <c r="Y201" s="15"/>
       <c r="Z201" s="18"/>
       <c r="AA201" s="15"/>
     </row>
-    <row r="202" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="25:27" ht="12">
       <c r="Y202" s="15"/>
       <c r="Z202" s="18"/>
       <c r="AA202" s="15"/>
     </row>
-    <row r="203" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="25:27" ht="12">
       <c r="Y203" s="15"/>
       <c r="Z203" s="18"/>
       <c r="AA203" s="15"/>
     </row>
-    <row r="204" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="25:27" ht="12">
       <c r="Y204" s="15"/>
       <c r="Z204" s="18"/>
       <c r="AA204" s="15"/>
     </row>
-    <row r="205" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="25:27" ht="12">
       <c r="Y205" s="15"/>
       <c r="Z205" s="18"/>
       <c r="AA205" s="15"/>
     </row>
-    <row r="206" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="25:27" ht="12">
       <c r="Y206" s="15"/>
       <c r="Z206" s="18"/>
       <c r="AA206" s="15"/>
     </row>
-    <row r="207" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="25:27" ht="12">
       <c r="Y207" s="15"/>
       <c r="Z207" s="18"/>
       <c r="AA207" s="15"/>
     </row>
-    <row r="208" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="25:27" ht="12">
       <c r="Y208" s="15"/>
       <c r="Z208" s="18"/>
       <c r="AA208" s="15"/>
     </row>
-    <row r="209" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="25:27" ht="12">
       <c r="Y209" s="15"/>
       <c r="Z209" s="18"/>
       <c r="AA209" s="15"/>
     </row>
-    <row r="210" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="25:27" ht="12">
       <c r="Y210" s="15"/>
       <c r="Z210" s="18"/>
       <c r="AA210" s="15"/>
     </row>
-    <row r="211" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="25:27" ht="12">
       <c r="Y211" s="15"/>
       <c r="Z211" s="18"/>
       <c r="AA211" s="15"/>
     </row>
-    <row r="212" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="25:27" ht="12">
       <c r="Y212" s="15"/>
       <c r="Z212" s="18"/>
       <c r="AA212" s="15"/>
     </row>
-    <row r="213" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="25:27" ht="12">
       <c r="Y213" s="15"/>
       <c r="Z213" s="18"/>
       <c r="AA213" s="15"/>
     </row>
-    <row r="214" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="25:27" ht="12">
       <c r="Y214" s="15"/>
       <c r="Z214" s="18"/>
       <c r="AA214" s="15"/>
     </row>
-    <row r="215" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="25:27" ht="12">
       <c r="Y215" s="15"/>
       <c r="Z215" s="18"/>
       <c r="AA215" s="15"/>
     </row>
-    <row r="216" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="25:27" ht="12">
       <c r="Y216" s="15"/>
       <c r="Z216" s="18"/>
       <c r="AA216" s="15"/>
     </row>
-    <row r="217" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="25:27" ht="12">
       <c r="Y217" s="15"/>
       <c r="Z217" s="18"/>
       <c r="AA217" s="15"/>
     </row>
-    <row r="218" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="25:27" ht="12">
       <c r="Y218" s="15"/>
       <c r="Z218" s="18"/>
       <c r="AA218" s="15"/>
     </row>
-    <row r="219" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="25:27" ht="12">
       <c r="Y219" s="15"/>
       <c r="Z219" s="18"/>
       <c r="AA219" s="15"/>
     </row>
-    <row r="220" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="25:27" ht="12">
       <c r="Y220" s="15"/>
       <c r="Z220" s="18"/>
       <c r="AA220" s="15"/>
     </row>
-    <row r="221" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="25:27" ht="12">
       <c r="Y221" s="15"/>
       <c r="Z221" s="18"/>
       <c r="AA221" s="15"/>
     </row>
-    <row r="222" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="25:27" ht="12">
       <c r="Y222" s="15"/>
       <c r="Z222" s="18"/>
       <c r="AA222" s="15"/>
     </row>
-    <row r="223" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="25:27" ht="12">
       <c r="Y223" s="15"/>
       <c r="Z223" s="18"/>
       <c r="AA223" s="15"/>
     </row>
-    <row r="224" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="25:27" ht="12">
       <c r="Y224" s="15"/>
       <c r="Z224" s="18"/>
       <c r="AA224" s="15"/>
     </row>
-    <row r="225" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="25:27" ht="12">
       <c r="Y225" s="15"/>
       <c r="Z225" s="18"/>
       <c r="AA225" s="15"/>
     </row>
-    <row r="226" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="25:27" ht="12">
       <c r="Y226" s="15"/>
       <c r="Z226" s="18"/>
       <c r="AA226" s="15"/>
     </row>
-    <row r="227" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="25:27" ht="12">
       <c r="Y227" s="15"/>
       <c r="Z227" s="18"/>
       <c r="AA227" s="15"/>
     </row>
-    <row r="228" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="25:27" ht="12">
       <c r="Y228" s="15"/>
       <c r="Z228" s="18"/>
       <c r="AA228" s="15"/>
     </row>
-    <row r="229" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="25:27" ht="12">
       <c r="Y229" s="15"/>
       <c r="Z229" s="18"/>
       <c r="AA229" s="15"/>
     </row>
-    <row r="230" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="25:27" ht="12">
       <c r="Y230" s="15"/>
       <c r="Z230" s="18"/>
       <c r="AA230" s="15"/>
     </row>
-    <row r="231" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="25:27" ht="12">
       <c r="Y231" s="15"/>
       <c r="Z231" s="18"/>
       <c r="AA231" s="15"/>
     </row>
-    <row r="232" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="25:27" ht="12">
       <c r="Y232" s="15"/>
       <c r="Z232" s="18"/>
       <c r="AA232" s="15"/>
     </row>
-    <row r="233" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="25:27" ht="12">
       <c r="Y233" s="15"/>
       <c r="Z233" s="18"/>
       <c r="AA233" s="15"/>
     </row>
-    <row r="234" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="25:27" ht="12">
       <c r="Y234" s="15"/>
       <c r="Z234" s="18"/>
       <c r="AA234" s="15"/>
     </row>
-    <row r="235" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="25:27" ht="12">
       <c r="Y235" s="15"/>
       <c r="Z235" s="18"/>
       <c r="AA235" s="15"/>
     </row>
-    <row r="236" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="25:27" ht="12">
       <c r="Y236" s="15"/>
       <c r="Z236" s="18"/>
       <c r="AA236" s="15"/>
     </row>
-    <row r="237" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="25:27" ht="12">
       <c r="Y237" s="15"/>
       <c r="Z237" s="18"/>
       <c r="AA237" s="15"/>
     </row>
-    <row r="238" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="25:27" ht="12">
       <c r="Y238" s="15"/>
       <c r="Z238" s="18"/>
       <c r="AA238" s="15"/>
     </row>
-    <row r="239" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="25:27" ht="12">
       <c r="Y239" s="15"/>
       <c r="Z239" s="18"/>
       <c r="AA239" s="15"/>
     </row>
-    <row r="240" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="25:27" ht="12">
       <c r="Y240" s="15"/>
       <c r="Z240" s="18"/>
       <c r="AA240" s="15"/>
     </row>
-    <row r="241" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="25:27" ht="12">
       <c r="Y241" s="15"/>
       <c r="Z241" s="18"/>
       <c r="AA241" s="15"/>
     </row>
-    <row r="242" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="25:27" ht="12">
       <c r="Y242" s="15"/>
       <c r="Z242" s="18"/>
       <c r="AA242" s="15"/>
     </row>
-    <row r="243" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="25:27" ht="12">
       <c r="Y243" s="15"/>
       <c r="Z243" s="18"/>
       <c r="AA243" s="15"/>
     </row>
-    <row r="244" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="25:27" ht="12">
       <c r="Y244" s="15"/>
       <c r="Z244" s="18"/>
       <c r="AA244" s="15"/>
     </row>
-    <row r="245" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="25:27" ht="12">
       <c r="Y245" s="15"/>
       <c r="Z245" s="18"/>
       <c r="AA245" s="15"/>
     </row>
-    <row r="246" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="25:27" ht="12">
       <c r="Y246" s="15"/>
       <c r="Z246" s="18"/>
       <c r="AA246" s="15"/>
     </row>
-    <row r="247" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="25:27" ht="12">
       <c r="Y247" s="15"/>
       <c r="Z247" s="18"/>
       <c r="AA247" s="15"/>
     </row>
-    <row r="248" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="25:27" ht="12">
       <c r="Y248" s="15"/>
       <c r="Z248" s="18"/>
       <c r="AA248" s="15"/>
     </row>
-    <row r="249" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="25:27" ht="12">
       <c r="Y249" s="15"/>
       <c r="Z249" s="18"/>
       <c r="AA249" s="15"/>
     </row>
-    <row r="250" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="25:27" ht="12">
       <c r="Y250" s="15"/>
       <c r="Z250" s="18"/>
       <c r="AA250" s="15"/>
     </row>
-    <row r="251" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="25:27" ht="12">
       <c r="Y251" s="15"/>
       <c r="Z251" s="18"/>
       <c r="AA251" s="15"/>
     </row>
-    <row r="252" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="25:27" ht="12">
       <c r="Y252" s="15"/>
       <c r="Z252" s="18"/>
       <c r="AA252" s="15"/>
     </row>
-    <row r="253" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="25:27" ht="12">
       <c r="Y253" s="15"/>
       <c r="Z253" s="18"/>
       <c r="AA253" s="15"/>
     </row>
-    <row r="254" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="25:27" ht="12">
       <c r="Y254" s="15"/>
       <c r="Z254" s="18"/>
       <c r="AA254" s="15"/>
     </row>
-    <row r="255" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="25:27" ht="12">
       <c r="Y255" s="15"/>
       <c r="Z255" s="18"/>
       <c r="AA255" s="15"/>
     </row>
-    <row r="256" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="25:27" ht="12">
       <c r="Y256" s="15"/>
       <c r="Z256" s="18"/>
       <c r="AA256" s="15"/>
     </row>
-    <row r="257" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="25:27" ht="12">
       <c r="Y257" s="15"/>
       <c r="Z257" s="18"/>
       <c r="AA257" s="15"/>
     </row>
-    <row r="258" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="25:27" ht="12">
       <c r="Y258" s="15"/>
       <c r="Z258" s="18"/>
       <c r="AA258" s="15"/>
     </row>
-    <row r="259" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="25:27" ht="12">
       <c r="Y259" s="15"/>
       <c r="Z259" s="18"/>
       <c r="AA259" s="15"/>
     </row>
-    <row r="260" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="25:27" ht="12">
       <c r="Y260" s="15"/>
       <c r="Z260" s="18"/>
       <c r="AA260" s="15"/>
     </row>
-    <row r="261" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="25:27" ht="12">
       <c r="Y261" s="15"/>
       <c r="Z261" s="18"/>
       <c r="AA261" s="15"/>
     </row>
-    <row r="262" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="25:27" ht="12">
       <c r="Y262" s="15"/>
       <c r="Z262" s="18"/>
       <c r="AA262" s="15"/>
     </row>
-    <row r="263" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="25:27" ht="12">
       <c r="Y263" s="15"/>
       <c r="Z263" s="18"/>
       <c r="AA263" s="15"/>
     </row>
-    <row r="264" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="25:27" ht="12">
       <c r="Y264" s="15"/>
       <c r="Z264" s="18"/>
       <c r="AA264" s="15"/>
     </row>
-    <row r="265" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="25:27" ht="12">
       <c r="Y265" s="15"/>
       <c r="Z265" s="18"/>
       <c r="AA265" s="15"/>
     </row>
-    <row r="266" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="25:27" ht="12">
       <c r="Y266" s="15"/>
       <c r="Z266" s="18"/>
       <c r="AA266" s="15"/>
     </row>
-    <row r="267" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="25:27" ht="12">
       <c r="Y267" s="15"/>
       <c r="Z267" s="18"/>
       <c r="AA267" s="15"/>
     </row>
-    <row r="268" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="25:27" ht="12">
       <c r="Y268" s="15"/>
       <c r="Z268" s="18"/>
       <c r="AA268" s="15"/>
     </row>
-    <row r="269" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="25:27" ht="12">
       <c r="Y269" s="15"/>
       <c r="Z269" s="18"/>
       <c r="AA269" s="15"/>
     </row>
-    <row r="270" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="25:27" ht="12">
       <c r="Y270" s="15"/>
       <c r="Z270" s="18"/>
       <c r="AA270" s="15"/>
     </row>
-    <row r="271" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="25:27" ht="12">
       <c r="Y271" s="15"/>
       <c r="Z271" s="18"/>
       <c r="AA271" s="15"/>
     </row>
-    <row r="272" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="25:27" ht="12">
       <c r="Y272" s="15"/>
       <c r="Z272" s="18"/>
       <c r="AA272" s="15"/>
     </row>
-    <row r="273" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="25:27" ht="12">
       <c r="Y273" s="15"/>
       <c r="Z273" s="18"/>
       <c r="AA273" s="15"/>
     </row>
-    <row r="274" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="25:27" ht="12">
       <c r="Y274" s="15"/>
       <c r="Z274" s="18"/>
       <c r="AA274" s="15"/>
     </row>
-    <row r="275" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="25:27" ht="12">
       <c r="Y275" s="15"/>
       <c r="Z275" s="18"/>
       <c r="AA275" s="15"/>
     </row>
-    <row r="276" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="25:27" ht="12">
       <c r="Y276" s="15"/>
       <c r="Z276" s="18"/>
       <c r="AA276" s="15"/>
     </row>
-    <row r="277" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="25:27" ht="12">
       <c r="Y277" s="15"/>
       <c r="Z277" s="18"/>
       <c r="AA277" s="15"/>
     </row>
-    <row r="278" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="25:27" ht="12">
       <c r="Y278" s="15"/>
       <c r="Z278" s="18"/>
       <c r="AA278" s="15"/>
     </row>
-    <row r="279" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="25:27" ht="12">
       <c r="Y279" s="15"/>
       <c r="Z279" s="18"/>
       <c r="AA279" s="15"/>
     </row>
-    <row r="280" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="25:27" ht="12">
       <c r="Y280" s="15"/>
       <c r="Z280" s="18"/>
       <c r="AA280" s="15"/>
     </row>
-    <row r="281" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="25:27" ht="12">
       <c r="Y281" s="15"/>
       <c r="Z281" s="18"/>
       <c r="AA281" s="15"/>
     </row>
-    <row r="282" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="25:27" ht="12">
       <c r="Y282" s="15"/>
       <c r="Z282" s="18"/>
       <c r="AA282" s="15"/>
     </row>
-    <row r="283" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="25:27" ht="12">
       <c r="Y283" s="15"/>
       <c r="Z283" s="18"/>
       <c r="AA283" s="15"/>
     </row>
-    <row r="284" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="25:27" ht="12">
       <c r="Y284" s="15"/>
       <c r="Z284" s="18"/>
       <c r="AA284" s="15"/>
     </row>
-    <row r="285" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="25:27" ht="12">
       <c r="Y285" s="15"/>
       <c r="Z285" s="18"/>
       <c r="AA285" s="15"/>
     </row>
-    <row r="286" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="25:27" ht="12">
       <c r="Y286" s="15"/>
       <c r="Z286" s="18"/>
       <c r="AA286" s="15"/>
     </row>
-    <row r="287" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="25:27" ht="12">
       <c r="Y287" s="15"/>
       <c r="Z287" s="18"/>
       <c r="AA287" s="15"/>
     </row>
-    <row r="288" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="25:27" ht="12">
       <c r="Y288" s="15"/>
       <c r="Z288" s="18"/>
       <c r="AA288" s="15"/>
     </row>
-    <row r="289" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="25:27" ht="12">
       <c r="Y289" s="15"/>
       <c r="Z289" s="18"/>
       <c r="AA289" s="15"/>
     </row>
-    <row r="290" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="25:27" ht="12">
       <c r="Y290" s="15"/>
       <c r="Z290" s="18"/>
       <c r="AA290" s="15"/>
     </row>
-    <row r="291" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="25:27" ht="12">
       <c r="Y291" s="15"/>
       <c r="Z291" s="18"/>
       <c r="AA291" s="15"/>
     </row>
-    <row r="292" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="25:27" ht="12">
       <c r="Y292" s="15"/>
       <c r="Z292" s="18"/>
       <c r="AA292" s="15"/>
     </row>
-    <row r="293" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="25:27" ht="12">
       <c r="Y293" s="15"/>
       <c r="Z293" s="18"/>
       <c r="AA293" s="15"/>
     </row>
-    <row r="294" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="25:27" ht="12">
       <c r="Y294" s="15"/>
       <c r="Z294" s="18"/>
       <c r="AA294" s="15"/>
     </row>
-    <row r="295" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="25:27" ht="12">
       <c r="Y295" s="15"/>
       <c r="Z295" s="18"/>
       <c r="AA295" s="15"/>
     </row>
-    <row r="296" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="25:27" ht="12">
       <c r="Y296" s="15"/>
       <c r="Z296" s="18"/>
       <c r="AA296" s="15"/>
     </row>
-    <row r="297" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="25:27" ht="12">
       <c r="Y297" s="15"/>
       <c r="Z297" s="18"/>
       <c r="AA297" s="15"/>
     </row>
-    <row r="298" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="25:27" ht="12">
       <c r="Y298" s="15"/>
       <c r="Z298" s="18"/>
       <c r="AA298" s="15"/>
     </row>
-    <row r="299" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="25:27" ht="12">
       <c r="Y299" s="15"/>
       <c r="Z299" s="18"/>
       <c r="AA299" s="15"/>
     </row>
-    <row r="300" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="25:27" ht="12">
       <c r="Y300" s="15"/>
       <c r="Z300" s="18"/>
       <c r="AA300" s="15"/>
     </row>
-    <row r="301" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="25:27" ht="12">
       <c r="Y301" s="15"/>
       <c r="Z301" s="18"/>
       <c r="AA301" s="15"/>
     </row>
-    <row r="302" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="25:27" ht="12">
       <c r="Y302" s="15"/>
       <c r="Z302" s="18"/>
       <c r="AA302" s="15"/>
     </row>
-    <row r="303" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="25:27" ht="12">
       <c r="Y303" s="15"/>
       <c r="Z303" s="18"/>
       <c r="AA303" s="15"/>
     </row>
-    <row r="304" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="25:27" ht="12">
       <c r="Y304" s="15"/>
       <c r="Z304" s="18"/>
       <c r="AA304" s="15"/>
     </row>
-    <row r="305" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="25:27" ht="12">
       <c r="Y305" s="15"/>
       <c r="Z305" s="18"/>
       <c r="AA305" s="15"/>
     </row>
-    <row r="306" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="25:27" ht="12">
       <c r="Y306" s="15"/>
       <c r="Z306" s="18"/>
       <c r="AA306" s="15"/>
     </row>
-    <row r="307" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="25:27" ht="12">
       <c r="Y307" s="15"/>
       <c r="Z307" s="18"/>
       <c r="AA307" s="15"/>
     </row>
-    <row r="308" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="25:27" ht="12">
       <c r="Y308" s="15"/>
       <c r="Z308" s="18"/>
       <c r="AA308" s="15"/>
     </row>
-    <row r="309" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="25:27" ht="12">
       <c r="Y309" s="15"/>
       <c r="Z309" s="18"/>
       <c r="AA309" s="15"/>
     </row>
-    <row r="310" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="25:27" ht="12">
       <c r="Y310" s="15"/>
       <c r="Z310" s="18"/>
       <c r="AA310" s="15"/>
     </row>
-    <row r="311" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="25:27" ht="12">
       <c r="Y311" s="15"/>
       <c r="Z311" s="18"/>
       <c r="AA311" s="15"/>
     </row>
-    <row r="312" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="25:27" ht="12">
       <c r="Y312" s="15"/>
       <c r="Z312" s="18"/>
       <c r="AA312" s="15"/>
     </row>
-    <row r="313" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="25:27" ht="12">
       <c r="Y313" s="15"/>
       <c r="Z313" s="18"/>
       <c r="AA313" s="15"/>
     </row>
-    <row r="314" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="25:27" ht="12">
       <c r="Y314" s="15"/>
       <c r="Z314" s="18"/>
       <c r="AA314" s="15"/>
     </row>
-    <row r="315" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="25:27" ht="12">
       <c r="Y315" s="15"/>
       <c r="Z315" s="18"/>
       <c r="AA315" s="15"/>
     </row>
-    <row r="316" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="25:27" ht="12">
       <c r="Y316" s="15"/>
       <c r="Z316" s="18"/>
       <c r="AA316" s="15"/>
     </row>
-    <row r="317" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="25:27" ht="12">
       <c r="Y317" s="15"/>
       <c r="Z317" s="18"/>
       <c r="AA317" s="15"/>
     </row>
-    <row r="318" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="25:27" ht="12">
       <c r="Y318" s="15"/>
       <c r="Z318" s="18"/>
       <c r="AA318" s="15"/>
     </row>
-    <row r="319" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="25:27" ht="12">
       <c r="Y319" s="15"/>
       <c r="Z319" s="18"/>
       <c r="AA319" s="15"/>
     </row>
-    <row r="320" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="25:27" ht="12">
       <c r="Y320" s="15"/>
       <c r="Z320" s="18"/>
       <c r="AA320" s="15"/>
     </row>
-    <row r="321" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="25:27" ht="12">
       <c r="Y321" s="15"/>
       <c r="Z321" s="18"/>
       <c r="AA321" s="15"/>
     </row>
-    <row r="322" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="25:27" ht="12">
       <c r="Y322" s="15"/>
       <c r="Z322" s="18"/>
       <c r="AA322" s="15"/>
     </row>
-    <row r="323" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="25:27" ht="12">
       <c r="Y323" s="15"/>
       <c r="Z323" s="18"/>
       <c r="AA323" s="15"/>
     </row>
-    <row r="324" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="25:27" ht="12">
       <c r="Y324" s="15"/>
       <c r="Z324" s="18"/>
       <c r="AA324" s="15"/>
     </row>
-    <row r="325" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="25:27" ht="12">
       <c r="Y325" s="15"/>
       <c r="Z325" s="18"/>
       <c r="AA325" s="15"/>
     </row>
-    <row r="326" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="25:27" ht="12">
       <c r="Y326" s="15"/>
       <c r="Z326" s="18"/>
       <c r="AA326" s="15"/>
     </row>
-    <row r="327" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="25:27" ht="12">
       <c r="Y327" s="15"/>
       <c r="Z327" s="18"/>
       <c r="AA327" s="15"/>
     </row>
-    <row r="328" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="25:27" ht="12">
       <c r="Y328" s="15"/>
       <c r="Z328" s="18"/>
       <c r="AA328" s="15"/>
     </row>
-    <row r="329" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="25:27" ht="12">
       <c r="Y329" s="15"/>
       <c r="Z329" s="18"/>
       <c r="AA329" s="15"/>
     </row>
-    <row r="330" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="25:27" ht="12">
       <c r="Y330" s="15"/>
       <c r="Z330" s="18"/>
       <c r="AA330" s="15"/>
     </row>
-    <row r="331" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="25:27" ht="12">
       <c r="Y331" s="15"/>
       <c r="Z331" s="18"/>
       <c r="AA331" s="15"/>
     </row>
-    <row r="332" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="25:27" ht="12">
       <c r="Y332" s="15"/>
       <c r="Z332" s="18"/>
       <c r="AA332" s="15"/>
     </row>
-    <row r="333" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="25:27" ht="12">
       <c r="Y333" s="15"/>
       <c r="Z333" s="18"/>
       <c r="AA333" s="15"/>
     </row>
-    <row r="334" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="25:27" ht="12">
       <c r="Y334" s="15"/>
       <c r="Z334" s="18"/>
       <c r="AA334" s="15"/>
     </row>
-    <row r="335" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="25:27" ht="12">
       <c r="Y335" s="15"/>
       <c r="Z335" s="18"/>
       <c r="AA335" s="15"/>
     </row>
-    <row r="336" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="25:27" ht="12">
       <c r="Y336" s="15"/>
       <c r="Z336" s="18"/>
       <c r="AA336" s="15"/>
     </row>
-    <row r="337" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="25:27" ht="12">
       <c r="Y337" s="15"/>
       <c r="Z337" s="18"/>
       <c r="AA337" s="15"/>
     </row>
-    <row r="338" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="25:27" ht="12">
       <c r="Y338" s="15"/>
       <c r="Z338" s="18"/>
       <c r="AA338" s="15"/>
     </row>
-    <row r="339" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="25:27" ht="12">
       <c r="Y339" s="15"/>
       <c r="Z339" s="18"/>
       <c r="AA339" s="15"/>
     </row>
-    <row r="340" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="25:27" ht="12">
       <c r="Y340" s="15"/>
       <c r="Z340" s="18"/>
       <c r="AA340" s="15"/>
     </row>
-    <row r="341" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="25:27" ht="12">
       <c r="Y341" s="15"/>
       <c r="Z341" s="18"/>
       <c r="AA341" s="15"/>
     </row>
-    <row r="342" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="25:27" ht="12">
       <c r="Y342" s="15"/>
       <c r="Z342" s="18"/>
       <c r="AA342" s="15"/>
     </row>
-    <row r="343" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="25:27" ht="12">
       <c r="Y343" s="15"/>
       <c r="Z343" s="18"/>
       <c r="AA343" s="15"/>
     </row>
-    <row r="344" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="25:27" ht="12">
       <c r="Y344" s="15"/>
       <c r="Z344" s="18"/>
       <c r="AA344" s="15"/>
     </row>
-    <row r="345" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="25:27" ht="12">
       <c r="Y345" s="15"/>
       <c r="Z345" s="18"/>
       <c r="AA345" s="15"/>
     </row>
-    <row r="346" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="25:27" ht="12">
       <c r="Y346" s="15"/>
       <c r="Z346" s="18"/>
       <c r="AA346" s="15"/>
     </row>
-    <row r="347" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="25:27" ht="12">
       <c r="Y347" s="15"/>
       <c r="Z347" s="18"/>
       <c r="AA347" s="15"/>
     </row>
-    <row r="348" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="25:27" ht="12">
       <c r="Y348" s="15"/>
       <c r="Z348" s="18"/>
       <c r="AA348" s="15"/>
     </row>
-    <row r="349" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="25:27" ht="12">
       <c r="Y349" s="15"/>
       <c r="Z349" s="18"/>
       <c r="AA349" s="15"/>
     </row>
-    <row r="350" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="25:27" ht="12">
       <c r="Y350" s="15"/>
       <c r="Z350" s="18"/>
       <c r="AA350" s="15"/>
     </row>
-    <row r="351" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="25:27" ht="12">
       <c r="Y351" s="15"/>
       <c r="Z351" s="18"/>
       <c r="AA351" s="15"/>
     </row>
-    <row r="352" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="25:27" ht="12">
       <c r="Y352" s="15"/>
       <c r="Z352" s="18"/>
       <c r="AA352" s="15"/>
     </row>
-    <row r="353" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="25:27" ht="12">
       <c r="Y353" s="15"/>
       <c r="Z353" s="18"/>
       <c r="AA353" s="15"/>
     </row>
-    <row r="354" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="25:27" ht="12">
       <c r="Y354" s="15"/>
       <c r="Z354" s="18"/>
       <c r="AA354" s="15"/>
     </row>
-    <row r="355" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="25:27" ht="12">
       <c r="Y355" s="15"/>
       <c r="Z355" s="18"/>
       <c r="AA355" s="15"/>
     </row>
-    <row r="356" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="25:27" ht="12">
       <c r="Y356" s="15"/>
       <c r="Z356" s="18"/>
       <c r="AA356" s="15"/>
     </row>
-    <row r="357" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="25:27" ht="12">
       <c r="Y357" s="15"/>
       <c r="Z357" s="18"/>
       <c r="AA357" s="15"/>
     </row>
-    <row r="358" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="25:27" ht="12">
       <c r="Y358" s="15"/>
       <c r="Z358" s="18"/>
       <c r="AA358" s="15"/>
     </row>
-    <row r="359" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="25:27" ht="12">
       <c r="Y359" s="15"/>
       <c r="Z359" s="18"/>
       <c r="AA359" s="15"/>
     </row>
-    <row r="360" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="25:27" ht="12">
       <c r="Y360" s="15"/>
       <c r="Z360" s="18"/>
       <c r="AA360" s="15"/>
     </row>
-    <row r="361" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="25:27" ht="12">
       <c r="Y361" s="15"/>
       <c r="Z361" s="18"/>
       <c r="AA361" s="15"/>
     </row>
-    <row r="362" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="25:27" ht="12">
       <c r="Y362" s="15"/>
       <c r="Z362" s="18"/>
       <c r="AA362" s="15"/>
     </row>
-    <row r="363" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="25:27" ht="12">
       <c r="Y363" s="15"/>
       <c r="Z363" s="18"/>
       <c r="AA363" s="15"/>
     </row>
-    <row r="364" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="25:27" ht="12">
       <c r="Y364" s="15"/>
       <c r="Z364" s="18"/>
       <c r="AA364" s="15"/>
     </row>
-    <row r="365" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="25:27" ht="12">
       <c r="Y365" s="15"/>
       <c r="Z365" s="18"/>
       <c r="AA365" s="15"/>
     </row>
-    <row r="366" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="25:27" ht="12">
       <c r="Y366" s="15"/>
       <c r="Z366" s="18"/>
       <c r="AA366" s="15"/>
     </row>
-    <row r="367" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="25:27" ht="12">
       <c r="Y367" s="15"/>
       <c r="Z367" s="18"/>
       <c r="AA367" s="15"/>
     </row>
-    <row r="368" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="25:27" ht="12">
       <c r="Y368" s="15"/>
       <c r="Z368" s="18"/>
       <c r="AA368" s="15"/>
     </row>
-    <row r="369" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="25:27" ht="12">
       <c r="Y369" s="15"/>
       <c r="Z369" s="18"/>
       <c r="AA369" s="15"/>
     </row>
-    <row r="370" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="25:27" ht="12">
       <c r="Y370" s="15"/>
       <c r="Z370" s="18"/>
       <c r="AA370" s="15"/>
     </row>
-    <row r="371" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="25:27" ht="12">
       <c r="Y371" s="15"/>
       <c r="Z371" s="18"/>
       <c r="AA371" s="15"/>
     </row>
-    <row r="372" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="25:27" ht="12">
       <c r="Y372" s="15"/>
       <c r="Z372" s="18"/>
       <c r="AA372" s="15"/>
     </row>
-    <row r="373" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="25:27" ht="12">
       <c r="Y373" s="15"/>
       <c r="Z373" s="18"/>
       <c r="AA373" s="15"/>
     </row>
-    <row r="374" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="25:27" ht="12">
       <c r="Y374" s="15"/>
       <c r="Z374" s="18"/>
       <c r="AA374" s="15"/>
     </row>
-    <row r="375" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="25:27" ht="12">
       <c r="Y375" s="15"/>
       <c r="Z375" s="18"/>
       <c r="AA375" s="15"/>
     </row>
-    <row r="376" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="25:27" ht="12">
       <c r="Y376" s="15"/>
       <c r="Z376" s="18"/>
       <c r="AA376" s="15"/>
     </row>
-    <row r="377" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="25:27" ht="12">
       <c r="Y377" s="15"/>
       <c r="Z377" s="18"/>
       <c r="AA377" s="15"/>
     </row>
-    <row r="378" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="25:27" ht="12">
       <c r="Y378" s="15"/>
       <c r="Z378" s="18"/>
       <c r="AA378" s="15"/>
     </row>
-    <row r="379" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="25:27" ht="12">
       <c r="Y379" s="15"/>
       <c r="Z379" s="18"/>
       <c r="AA379" s="15"/>
     </row>
-    <row r="380" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="25:27" ht="12">
       <c r="Y380" s="15"/>
       <c r="Z380" s="18"/>
       <c r="AA380" s="15"/>
     </row>
-    <row r="381" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="25:27" ht="12">
       <c r="Y381" s="15"/>
       <c r="Z381" s="18"/>
       <c r="AA381" s="15"/>
     </row>
-    <row r="382" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="25:27" ht="12">
       <c r="Y382" s="15"/>
       <c r="Z382" s="18"/>
       <c r="AA382" s="15"/>
     </row>
-    <row r="383" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="25:27" ht="12">
       <c r="Y383" s="15"/>
       <c r="Z383" s="18"/>
       <c r="AA383" s="15"/>
     </row>
-    <row r="384" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="25:27" ht="12">
       <c r="Y384" s="15"/>
       <c r="Z384" s="18"/>
       <c r="AA384" s="15"/>
     </row>
-    <row r="385" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="25:27" ht="12">
       <c r="Y385" s="15"/>
       <c r="Z385" s="18"/>
       <c r="AA385" s="15"/>
     </row>
-    <row r="386" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="25:27" ht="12">
       <c r="Y386" s="15"/>
       <c r="Z386" s="18"/>
       <c r="AA386" s="15"/>
     </row>
-    <row r="387" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="25:27" ht="12">
       <c r="Y387" s="15"/>
       <c r="Z387" s="18"/>
       <c r="AA387" s="15"/>
     </row>
-    <row r="388" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="25:27" ht="12">
       <c r="Y388" s="15"/>
       <c r="Z388" s="18"/>
       <c r="AA388" s="15"/>
     </row>
-    <row r="389" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="25:27" ht="12">
       <c r="Y389" s="15"/>
       <c r="Z389" s="18"/>
       <c r="AA389" s="15"/>
     </row>
-    <row r="390" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="25:27" ht="12">
       <c r="Y390" s="15"/>
       <c r="Z390" s="18"/>
       <c r="AA390" s="15"/>
     </row>
-    <row r="391" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="25:27" ht="12">
       <c r="Y391" s="15"/>
       <c r="Z391" s="18"/>
       <c r="AA391" s="15"/>
     </row>
-    <row r="392" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="25:27" ht="12">
       <c r="Y392" s="15"/>
       <c r="Z392" s="18"/>
       <c r="AA392" s="15"/>
     </row>
-    <row r="393" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="25:27" ht="12">
       <c r="Y393" s="15"/>
       <c r="Z393" s="18"/>
       <c r="AA393" s="15"/>
     </row>
-    <row r="394" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="25:27" ht="12">
       <c r="Y394" s="15"/>
       <c r="Z394" s="18"/>
       <c r="AA394" s="15"/>
     </row>
-    <row r="395" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="25:27" ht="12">
       <c r="Y395" s="15"/>
       <c r="Z395" s="18"/>
       <c r="AA395" s="15"/>
     </row>
-    <row r="396" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="25:27" ht="12">
       <c r="Y396" s="15"/>
       <c r="Z396" s="18"/>
       <c r="AA396" s="15"/>
     </row>
-    <row r="397" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="25:27" ht="12">
       <c r="Y397" s="15"/>
       <c r="Z397" s="18"/>
       <c r="AA397" s="15"/>
     </row>
-    <row r="398" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="25:27" ht="12">
       <c r="Y398" s="15"/>
       <c r="Z398" s="18"/>
       <c r="AA398" s="15"/>
     </row>
-    <row r="399" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="25:27" ht="12">
       <c r="Y399" s="15"/>
       <c r="Z399" s="18"/>
       <c r="AA399" s="15"/>
     </row>
-    <row r="400" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="25:27" ht="12">
       <c r="Y400" s="15"/>
       <c r="Z400" s="18"/>
       <c r="AA400" s="15"/>
     </row>
-    <row r="401" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="25:27" ht="12">
       <c r="Y401" s="15"/>
       <c r="Z401" s="18"/>
       <c r="AA401" s="15"/>
     </row>
-    <row r="402" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="25:27" ht="12">
       <c r="Y402" s="15"/>
       <c r="Z402" s="18"/>
       <c r="AA402" s="15"/>
     </row>
-    <row r="403" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="25:27" ht="12">
       <c r="Y403" s="15"/>
       <c r="Z403" s="18"/>
       <c r="AA403" s="15"/>
     </row>
-    <row r="404" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="25:27" ht="12">
       <c r="Y404" s="15"/>
       <c r="Z404" s="18"/>
       <c r="AA404" s="15"/>
     </row>
-    <row r="405" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="25:27" ht="12">
       <c r="Y405" s="15"/>
       <c r="Z405" s="18"/>
       <c r="AA405" s="15"/>
     </row>
-    <row r="406" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="25:27" ht="12">
       <c r="Y406" s="15"/>
       <c r="Z406" s="18"/>
       <c r="AA406" s="15"/>
     </row>
-    <row r="407" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="25:27" ht="12">
       <c r="Y407" s="15"/>
       <c r="Z407" s="18"/>
       <c r="AA407" s="15"/>
     </row>
-    <row r="408" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="25:27" ht="12">
       <c r="Y408" s="15"/>
       <c r="Z408" s="18"/>
       <c r="AA408" s="15"/>
     </row>
-    <row r="409" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="25:27" ht="12">
       <c r="Y409" s="15"/>
       <c r="Z409" s="18"/>
       <c r="AA409" s="15"/>
     </row>
-    <row r="410" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="25:27" ht="12">
       <c r="Y410" s="15"/>
       <c r="Z410" s="18"/>
       <c r="AA410" s="15"/>
     </row>
-    <row r="411" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="25:27" ht="12">
       <c r="Y411" s="15"/>
       <c r="Z411" s="18"/>
       <c r="AA411" s="15"/>
     </row>
-    <row r="412" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="25:27" ht="12">
       <c r="Y412" s="15"/>
       <c r="Z412" s="18"/>
       <c r="AA412" s="15"/>
     </row>
-    <row r="413" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="25:27" ht="12">
       <c r="Y413" s="15"/>
       <c r="Z413" s="18"/>
       <c r="AA413" s="15"/>
     </row>
-    <row r="414" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="25:27" ht="12">
       <c r="Y414" s="15"/>
       <c r="Z414" s="18"/>
       <c r="AA414" s="15"/>
     </row>
-    <row r="415" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="25:27" ht="12">
       <c r="Y415" s="15"/>
       <c r="Z415" s="18"/>
       <c r="AA415" s="15"/>
     </row>
-    <row r="416" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="25:27" ht="12">
       <c r="Y416" s="15"/>
       <c r="Z416" s="18"/>
       <c r="AA416" s="15"/>
     </row>
-    <row r="417" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="25:27" ht="12">
       <c r="Y417" s="15"/>
       <c r="Z417" s="18"/>
       <c r="AA417" s="15"/>
     </row>
-    <row r="418" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="25:27" ht="12">
       <c r="Y418" s="15"/>
       <c r="Z418" s="18"/>
       <c r="AA418" s="15"/>
     </row>
-    <row r="419" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="25:27" ht="12">
       <c r="Y419" s="15"/>
       <c r="Z419" s="18"/>
       <c r="AA419" s="15"/>
     </row>
-    <row r="420" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="25:27" ht="12">
       <c r="Y420" s="15"/>
       <c r="Z420" s="18"/>
       <c r="AA420" s="15"/>
     </row>
-    <row r="421" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="25:27" ht="12">
       <c r="Y421" s="15"/>
       <c r="Z421" s="18"/>
       <c r="AA421" s="15"/>
     </row>
-    <row r="422" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="25:27" ht="12">
       <c r="Y422" s="15"/>
       <c r="Z422" s="18"/>
       <c r="AA422" s="15"/>
     </row>
-    <row r="423" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="25:27" ht="12">
       <c r="Y423" s="15"/>
       <c r="Z423" s="18"/>
       <c r="AA423" s="15"/>
     </row>
-    <row r="424" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="25:27" ht="12">
       <c r="Y424" s="15"/>
       <c r="Z424" s="18"/>
       <c r="AA424" s="15"/>
     </row>
-    <row r="425" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="25:27" ht="12">
       <c r="Y425" s="15"/>
       <c r="Z425" s="18"/>
       <c r="AA425" s="15"/>
     </row>
-    <row r="426" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="25:27" ht="12">
       <c r="Y426" s="15"/>
       <c r="Z426" s="18"/>
       <c r="AA426" s="15"/>
     </row>
-    <row r="427" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="25:27" ht="12">
       <c r="Y427" s="15"/>
       <c r="Z427" s="18"/>
       <c r="AA427" s="15"/>
     </row>
-    <row r="428" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="25:27" ht="12">
       <c r="Y428" s="15"/>
       <c r="Z428" s="18"/>
       <c r="AA428" s="15"/>
     </row>
-    <row r="429" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="25:27" ht="12">
       <c r="Y429" s="15"/>
       <c r="Z429" s="18"/>
       <c r="AA429" s="15"/>
     </row>
-    <row r="430" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="25:27" ht="12">
       <c r="Y430" s="15"/>
       <c r="Z430" s="18"/>
       <c r="AA430" s="15"/>
     </row>
-    <row r="431" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="25:27" ht="12">
       <c r="Y431" s="15"/>
       <c r="Z431" s="18"/>
       <c r="AA431" s="15"/>
     </row>
-    <row r="432" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="25:27" ht="12">
       <c r="Y432" s="15"/>
       <c r="Z432" s="18"/>
       <c r="AA432" s="15"/>
     </row>
-    <row r="433" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="25:27" ht="12">
       <c r="Y433" s="15"/>
       <c r="Z433" s="18"/>
       <c r="AA433" s="15"/>
     </row>
-    <row r="434" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="25:27" ht="12">
       <c r="Y434" s="15"/>
       <c r="Z434" s="18"/>
       <c r="AA434" s="15"/>
     </row>
-    <row r="435" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="25:27" ht="12">
       <c r="Y435" s="15"/>
       <c r="Z435" s="18"/>
       <c r="AA435" s="15"/>
     </row>
-    <row r="436" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="25:27" ht="12">
       <c r="Y436" s="15"/>
       <c r="Z436" s="18"/>
       <c r="AA436" s="15"/>
     </row>
-    <row r="437" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="25:27" ht="12">
       <c r="Y437" s="15"/>
       <c r="Z437" s="18"/>
       <c r="AA437" s="15"/>
     </row>
-    <row r="438" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="25:27" ht="12">
       <c r="Y438" s="15"/>
       <c r="Z438" s="18"/>
       <c r="AA438" s="15"/>
     </row>
-    <row r="439" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="25:27" ht="12">
       <c r="Y439" s="15"/>
       <c r="Z439" s="18"/>
       <c r="AA439" s="15"/>
     </row>
-    <row r="440" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="25:27" ht="12">
       <c r="Y440" s="15"/>
       <c r="Z440" s="18"/>
       <c r="AA440" s="15"/>
     </row>
-    <row r="441" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="25:27" ht="12">
       <c r="Y441" s="15"/>
       <c r="Z441" s="18"/>
       <c r="AA441" s="15"/>
     </row>
-    <row r="442" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="25:27" ht="12">
       <c r="Y442" s="15"/>
       <c r="Z442" s="18"/>
       <c r="AA442" s="15"/>
     </row>
-    <row r="443" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="25:27" ht="12">
       <c r="Y443" s="15"/>
       <c r="Z443" s="18"/>
       <c r="AA443" s="15"/>
     </row>
-    <row r="444" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="25:27" ht="12">
       <c r="Y444" s="15"/>
       <c r="Z444" s="18"/>
       <c r="AA444" s="15"/>
     </row>
-    <row r="445" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="25:27" ht="12">
       <c r="Y445" s="15"/>
       <c r="Z445" s="18"/>
       <c r="AA445" s="15"/>
     </row>
-    <row r="446" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="25:27" ht="12">
       <c r="Y446" s="15"/>
       <c r="Z446" s="18"/>
       <c r="AA446" s="15"/>
     </row>
-    <row r="447" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="25:27" ht="12">
       <c r="Y447" s="15"/>
       <c r="Z447" s="18"/>
       <c r="AA447" s="15"/>
     </row>
-    <row r="448" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="25:27" ht="12">
       <c r="Y448" s="15"/>
       <c r="Z448" s="18"/>
       <c r="AA448" s="15"/>
     </row>
-    <row r="449" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="25:27" ht="12">
       <c r="Y449" s="15"/>
       <c r="Z449" s="18"/>
       <c r="AA449" s="15"/>
     </row>
-    <row r="450" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="25:27" ht="12">
       <c r="Y450" s="15"/>
       <c r="Z450" s="18"/>
       <c r="AA450" s="15"/>
     </row>
-    <row r="451" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="25:27" ht="12">
       <c r="Y451" s="15"/>
       <c r="Z451" s="18"/>
       <c r="AA451" s="15"/>
     </row>
-    <row r="452" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="25:27" ht="12">
       <c r="Y452" s="15"/>
       <c r="Z452" s="18"/>
       <c r="AA452" s="15"/>
     </row>
-    <row r="453" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="25:27" ht="12">
       <c r="Y453" s="15"/>
       <c r="Z453" s="18"/>
       <c r="AA453" s="15"/>
     </row>
-    <row r="454" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="25:27" ht="12">
       <c r="Y454" s="15"/>
       <c r="Z454" s="18"/>
       <c r="AA454" s="15"/>
     </row>
-    <row r="455" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="25:27" ht="12">
       <c r="Y455" s="15"/>
       <c r="Z455" s="18"/>
       <c r="AA455" s="15"/>
     </row>
-    <row r="456" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="25:27" ht="12">
       <c r="Y456" s="15"/>
       <c r="Z456" s="18"/>
       <c r="AA456" s="15"/>
     </row>
-    <row r="457" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="25:27" ht="12">
       <c r="Y457" s="15"/>
       <c r="Z457" s="18"/>
       <c r="AA457" s="15"/>
     </row>
-    <row r="458" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="25:27" ht="12">
       <c r="Y458" s="15"/>
       <c r="Z458" s="18"/>
       <c r="AA458" s="15"/>
     </row>
-    <row r="459" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="25:27" ht="12">
       <c r="Y459" s="15"/>
       <c r="Z459" s="18"/>
       <c r="AA459" s="15"/>
     </row>
-    <row r="460" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="25:27" ht="12">
       <c r="Y460" s="15"/>
       <c r="Z460" s="18"/>
       <c r="AA460" s="15"/>
     </row>
-    <row r="461" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="25:27" ht="12">
       <c r="Y461" s="15"/>
       <c r="Z461" s="18"/>
       <c r="AA461" s="15"/>
     </row>
-    <row r="462" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="25:27" ht="12">
       <c r="Y462" s="15"/>
       <c r="Z462" s="18"/>
       <c r="AA462" s="15"/>
     </row>
-    <row r="463" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="25:27" ht="12">
       <c r="Y463" s="15"/>
       <c r="Z463" s="18"/>
       <c r="AA463" s="15"/>
     </row>
-    <row r="464" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="25:27" ht="12">
       <c r="Y464" s="15"/>
       <c r="Z464" s="18"/>
       <c r="AA464" s="15"/>
     </row>
-    <row r="465" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="25:27" ht="12">
       <c r="Y465" s="15"/>
       <c r="Z465" s="18"/>
       <c r="AA465" s="15"/>
     </row>
-    <row r="466" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="25:27" ht="12">
       <c r="Y466" s="15"/>
       <c r="Z466" s="18"/>
       <c r="AA466" s="15"/>
     </row>
-    <row r="467" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="25:27" ht="12">
       <c r="Y467" s="15"/>
       <c r="Z467" s="18"/>
       <c r="AA467" s="15"/>
     </row>
-    <row r="468" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="25:27" ht="12">
       <c r="Y468" s="15"/>
       <c r="Z468" s="18"/>
       <c r="AA468" s="15"/>
     </row>
-    <row r="469" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="25:27" ht="12">
       <c r="Y469" s="15"/>
       <c r="Z469" s="18"/>
       <c r="AA469" s="15"/>
     </row>
-    <row r="470" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="25:27" ht="12">
       <c r="Y470" s="15"/>
       <c r="Z470" s="18"/>
       <c r="AA470" s="15"/>
     </row>
-    <row r="471" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="25:27" ht="12">
       <c r="Y471" s="15"/>
       <c r="Z471" s="18"/>
       <c r="AA471" s="15"/>
     </row>
-    <row r="472" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="25:27" ht="12">
       <c r="Y472" s="15"/>
       <c r="Z472" s="18"/>
       <c r="AA472" s="15"/>
     </row>
-    <row r="473" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="25:27" ht="12">
       <c r="Y473" s="15"/>
       <c r="Z473" s="18"/>
       <c r="AA473" s="15"/>
     </row>
-    <row r="474" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="25:27" ht="12">
       <c r="Y474" s="15"/>
       <c r="Z474" s="18"/>
       <c r="AA474" s="15"/>
     </row>
-    <row r="475" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="25:27" ht="12">
       <c r="Y475" s="15"/>
       <c r="Z475" s="18"/>
       <c r="AA475" s="15"/>
     </row>
-    <row r="476" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="25:27" ht="12">
       <c r="Y476" s="15"/>
       <c r="Z476" s="18"/>
       <c r="AA476" s="15"/>
     </row>
-    <row r="477" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="25:27" ht="12">
       <c r="Y477" s="15"/>
       <c r="Z477" s="18"/>
       <c r="AA477" s="15"/>
     </row>
-    <row r="478" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="25:27" ht="12">
       <c r="Y478" s="15"/>
       <c r="Z478" s="18"/>
       <c r="AA478" s="15"/>
     </row>
-    <row r="479" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="25:27" ht="12">
       <c r="Y479" s="15"/>
       <c r="Z479" s="18"/>
       <c r="AA479" s="15"/>
     </row>
-    <row r="480" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="25:27" ht="12">
       <c r="Y480" s="15"/>
       <c r="Z480" s="18"/>
       <c r="AA480" s="15"/>
     </row>
-    <row r="481" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="25:27" ht="12">
       <c r="Y481" s="15"/>
       <c r="Z481" s="18"/>
       <c r="AA481" s="15"/>
     </row>
-    <row r="482" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="25:27" ht="12">
       <c r="Y482" s="15"/>
       <c r="Z482" s="18"/>
       <c r="AA482" s="15"/>
     </row>
-    <row r="483" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="25:27" ht="12">
       <c r="Y483" s="15"/>
       <c r="Z483" s="18"/>
       <c r="AA483" s="15"/>
     </row>
-    <row r="484" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="25:27" ht="12">
       <c r="Y484" s="15"/>
       <c r="Z484" s="18"/>
       <c r="AA484" s="15"/>
     </row>
-    <row r="485" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="25:27" ht="12">
       <c r="Y485" s="15"/>
       <c r="Z485" s="18"/>
       <c r="AA485" s="15"/>
     </row>
-    <row r="486" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="25:27" ht="12">
       <c r="Y486" s="15"/>
       <c r="Z486" s="18"/>
       <c r="AA486" s="15"/>
     </row>
-    <row r="487" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="25:27" ht="12">
       <c r="Y487" s="15"/>
       <c r="Z487" s="18"/>
       <c r="AA487" s="15"/>
     </row>
-    <row r="488" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="25:27" ht="12">
       <c r="Y488" s="15"/>
       <c r="Z488" s="18"/>
       <c r="AA488" s="15"/>
     </row>
-    <row r="489" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="25:27" ht="12">
       <c r="Y489" s="15"/>
       <c r="Z489" s="18"/>
       <c r="AA489" s="15"/>
     </row>
-    <row r="490" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="25:27" ht="12">
       <c r="Y490" s="15"/>
       <c r="Z490" s="18"/>
       <c r="AA490" s="15"/>
     </row>
-    <row r="491" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="25:27" ht="12">
       <c r="Y491" s="15"/>
       <c r="Z491" s="18"/>
       <c r="AA491" s="15"/>
     </row>
-    <row r="492" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="25:27" ht="12">
       <c r="Y492" s="15"/>
       <c r="Z492" s="18"/>
       <c r="AA492" s="15"/>
     </row>
-    <row r="493" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="25:27" ht="12">
       <c r="Y493" s="15"/>
       <c r="Z493" s="18"/>
       <c r="AA493" s="15"/>
     </row>
-    <row r="494" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="25:27" ht="12">
       <c r="Y494" s="15"/>
       <c r="Z494" s="18"/>
       <c r="AA494" s="15"/>
     </row>
-    <row r="495" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="25:27" ht="12">
       <c r="Y495" s="15"/>
       <c r="Z495" s="18"/>
       <c r="AA495" s="15"/>
     </row>
-    <row r="496" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="25:27" ht="12">
       <c r="Y496" s="15"/>
       <c r="Z496" s="18"/>
       <c r="AA496" s="15"/>
     </row>
-    <row r="497" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="25:27" ht="12">
       <c r="Y497" s="15"/>
       <c r="Z497" s="18"/>
       <c r="AA497" s="15"/>
     </row>
-    <row r="498" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="25:27" ht="12">
       <c r="Y498" s="15"/>
       <c r="Z498" s="18"/>
       <c r="AA498" s="15"/>
     </row>
-    <row r="499" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="25:27" ht="12">
       <c r="Y499" s="15"/>
       <c r="Z499" s="18"/>
       <c r="AA499" s="15"/>
     </row>
-    <row r="500" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="25:27" ht="12">
       <c r="Y500" s="15"/>
       <c r="Z500" s="18"/>
       <c r="AA500" s="15"/>
     </row>
-    <row r="501" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="25:27" ht="12">
       <c r="Y501" s="15"/>
       <c r="Z501" s="18"/>
       <c r="AA501" s="15"/>
     </row>
-    <row r="502" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="25:27" ht="12">
       <c r="Y502" s="15"/>
       <c r="Z502" s="18"/>
       <c r="AA502" s="15"/>
     </row>
-    <row r="503" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="25:27" ht="12">
       <c r="Y503" s="15"/>
       <c r="Z503" s="18"/>
       <c r="AA503" s="15"/>
     </row>
-    <row r="504" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="25:27" ht="12">
       <c r="Y504" s="15"/>
       <c r="Z504" s="18"/>
       <c r="AA504" s="15"/>
     </row>
-    <row r="505" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="25:27" ht="12">
       <c r="Y505" s="15"/>
       <c r="Z505" s="18"/>
       <c r="AA505" s="15"/>
     </row>
-    <row r="506" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="25:27" ht="12">
       <c r="Y506" s="15"/>
       <c r="Z506" s="18"/>
       <c r="AA506" s="15"/>
     </row>
-    <row r="507" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="25:27" ht="12">
       <c r="Y507" s="15"/>
       <c r="Z507" s="18"/>
       <c r="AA507" s="15"/>
     </row>
-    <row r="508" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="25:27" ht="12">
       <c r="Y508" s="15"/>
       <c r="Z508" s="18"/>
       <c r="AA508" s="15"/>
     </row>
-    <row r="509" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="25:27" ht="12">
       <c r="Y509" s="15"/>
       <c r="Z509" s="18"/>
       <c r="AA509" s="15"/>
     </row>
-    <row r="510" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="25:27" ht="12">
       <c r="Y510" s="15"/>
       <c r="Z510" s="18"/>
       <c r="AA510" s="15"/>
     </row>
-    <row r="511" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="25:27" ht="12">
       <c r="Y511" s="15"/>
       <c r="Z511" s="18"/>
       <c r="AA511" s="15"/>
     </row>
-    <row r="512" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="25:27" ht="12">
       <c r="Y512" s="15"/>
       <c r="Z512" s="18"/>
       <c r="AA512" s="15"/>
     </row>
-    <row r="513" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="25:27" ht="12">
       <c r="Y513" s="15"/>
       <c r="Z513" s="18"/>
       <c r="AA513" s="15"/>
     </row>
-    <row r="514" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="25:27" ht="12">
       <c r="Y514" s="15"/>
       <c r="Z514" s="18"/>
       <c r="AA514" s="15"/>
     </row>
-    <row r="515" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="25:27" ht="12">
       <c r="Y515" s="15"/>
       <c r="Z515" s="18"/>
       <c r="AA515" s="15"/>
     </row>
-    <row r="516" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="25:27" ht="12">
       <c r="Y516" s="15"/>
       <c r="Z516" s="18"/>
       <c r="AA516" s="15"/>
     </row>
-    <row r="517" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="25:27" ht="12">
       <c r="Y517" s="15"/>
       <c r="Z517" s="18"/>
       <c r="AA517" s="15"/>
     </row>
-    <row r="518" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="25:27" ht="12">
       <c r="Y518" s="15"/>
       <c r="Z518" s="18"/>
       <c r="AA518" s="15"/>
     </row>
-    <row r="519" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="25:27" ht="12">
       <c r="Y519" s="15"/>
       <c r="Z519" s="18"/>
       <c r="AA519" s="15"/>
     </row>
-    <row r="520" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="25:27" ht="12">
       <c r="Y520" s="15"/>
       <c r="Z520" s="18"/>
       <c r="AA520" s="15"/>
     </row>
-    <row r="521" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="25:27" ht="12">
       <c r="Y521" s="15"/>
       <c r="Z521" s="18"/>
       <c r="AA521" s="15"/>
     </row>
-    <row r="522" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="25:27" ht="12">
       <c r="Y522" s="15"/>
       <c r="Z522" s="18"/>
       <c r="AA522" s="15"/>
     </row>
-    <row r="523" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="25:27" ht="12">
       <c r="Y523" s="15"/>
       <c r="Z523" s="18"/>
       <c r="AA523" s="15"/>
     </row>
-    <row r="524" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="25:27" ht="12">
       <c r="Y524" s="15"/>
       <c r="Z524" s="18"/>
       <c r="AA524" s="15"/>
     </row>
-    <row r="525" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="25:27" ht="12">
       <c r="Y525" s="15"/>
       <c r="Z525" s="18"/>
       <c r="AA525" s="15"/>
     </row>
-    <row r="526" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="25:27" ht="12">
       <c r="Y526" s="15"/>
       <c r="Z526" s="18"/>
       <c r="AA526" s="15"/>
     </row>
-    <row r="527" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="25:27" ht="12">
       <c r="Y527" s="15"/>
       <c r="Z527" s="18"/>
       <c r="AA527" s="15"/>
     </row>
-    <row r="528" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="25:27" ht="12">
       <c r="Y528" s="15"/>
       <c r="Z528" s="18"/>
       <c r="AA528" s="15"/>
     </row>
-    <row r="529" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="25:27" ht="12">
       <c r="Y529" s="15"/>
       <c r="Z529" s="18"/>
       <c r="AA529" s="15"/>
     </row>
-    <row r="530" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="25:27" ht="12">
       <c r="Y530" s="15"/>
       <c r="Z530" s="18"/>
       <c r="AA530" s="15"/>
     </row>
-    <row r="531" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="25:27" ht="12">
       <c r="Y531" s="15"/>
       <c r="Z531" s="18"/>
       <c r="AA531" s="15"/>
     </row>
-    <row r="532" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="25:27" ht="12">
       <c r="Y532" s="15"/>
       <c r="Z532" s="18"/>
       <c r="AA532" s="15"/>
     </row>
-    <row r="533" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="25:27" ht="12">
       <c r="Y533" s="15"/>
       <c r="Z533" s="18"/>
       <c r="AA533" s="15"/>
     </row>
-    <row r="534" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="25:27" ht="12">
       <c r="Y534" s="15"/>
       <c r="Z534" s="18"/>
       <c r="AA534" s="15"/>
     </row>
-    <row r="535" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="25:27" ht="12">
       <c r="Y535" s="15"/>
       <c r="Z535" s="18"/>
       <c r="AA535" s="15"/>
     </row>
-    <row r="536" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="25:27" ht="12">
       <c r="Y536" s="15"/>
       <c r="Z536" s="18"/>
       <c r="AA536" s="15"/>
     </row>
-    <row r="537" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="25:27" ht="12">
       <c r="Y537" s="15"/>
       <c r="Z537" s="18"/>
       <c r="AA537" s="15"/>
     </row>
-    <row r="538" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="25:27" ht="12">
       <c r="Y538" s="15"/>
       <c r="Z538" s="18"/>
       <c r="AA538" s="15"/>
     </row>
-    <row r="539" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="25:27" ht="12">
       <c r="Y539" s="15"/>
       <c r="Z539" s="18"/>
       <c r="AA539" s="15"/>
     </row>
-    <row r="540" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="25:27" ht="12">
       <c r="Y540" s="15"/>
       <c r="Z540" s="18"/>
       <c r="AA540" s="15"/>
     </row>
-    <row r="541" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="25:27" ht="12">
       <c r="Y541" s="15"/>
       <c r="Z541" s="18"/>
       <c r="AA541" s="15"/>
     </row>
-    <row r="542" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="25:27" ht="12">
       <c r="Y542" s="15"/>
       <c r="Z542" s="18"/>
       <c r="AA542" s="15"/>
     </row>
-    <row r="543" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="25:27" ht="12">
       <c r="Y543" s="15"/>
       <c r="Z543" s="18"/>
       <c r="AA543" s="15"/>
     </row>
-    <row r="544" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="25:27" ht="12">
       <c r="Y544" s="15"/>
       <c r="Z544" s="18"/>
       <c r="AA544" s="15"/>
     </row>
-    <row r="545" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="25:27" ht="12">
       <c r="Y545" s="15"/>
       <c r="Z545" s="18"/>
       <c r="AA545" s="15"/>
     </row>
-    <row r="546" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="25:27" ht="12">
       <c r="Y546" s="15"/>
       <c r="Z546" s="18"/>
       <c r="AA546" s="15"/>
     </row>
-    <row r="547" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="25:27" ht="12">
       <c r="Y547" s="15"/>
       <c r="Z547" s="18"/>
       <c r="AA547" s="15"/>
     </row>
-    <row r="548" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="25:27" ht="12">
       <c r="Y548" s="15"/>
       <c r="Z548" s="18"/>
       <c r="AA548" s="15"/>
     </row>
-    <row r="549" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="25:27" ht="12">
       <c r="Y549" s="15"/>
       <c r="Z549" s="18"/>
       <c r="AA549" s="15"/>
     </row>
-    <row r="550" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="25:27" ht="12">
       <c r="Y550" s="15"/>
       <c r="Z550" s="18"/>
       <c r="AA550" s="15"/>
     </row>
-    <row r="551" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="25:27" ht="12">
       <c r="Y551" s="15"/>
       <c r="Z551" s="18"/>
       <c r="AA551" s="15"/>
     </row>
-    <row r="552" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="25:27" ht="12">
       <c r="Y552" s="15"/>
       <c r="Z552" s="18"/>
       <c r="AA552" s="15"/>
     </row>
-    <row r="553" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="25:27" ht="12">
       <c r="Y553" s="15"/>
       <c r="Z553" s="18"/>
       <c r="AA553" s="15"/>
     </row>
-    <row r="554" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="25:27" ht="12">
       <c r="Y554" s="15"/>
       <c r="Z554" s="18"/>
       <c r="AA554" s="15"/>
     </row>
-    <row r="555" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="25:27" ht="12">
       <c r="Y555" s="15"/>
       <c r="Z555" s="18"/>
       <c r="AA555" s="15"/>
     </row>
-    <row r="556" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="25:27" ht="12">
       <c r="Y556" s="15"/>
       <c r="Z556" s="18"/>
       <c r="AA556" s="15"/>
     </row>
-    <row r="557" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="25:27" ht="12">
       <c r="Y557" s="15"/>
       <c r="Z557" s="18"/>
       <c r="AA557" s="15"/>
     </row>
-    <row r="558" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="25:27" ht="12">
       <c r="Y558" s="15"/>
       <c r="Z558" s="18"/>
       <c r="AA558" s="15"/>
     </row>
-    <row r="559" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="25:27" ht="12">
       <c r="Y559" s="15"/>
       <c r="Z559" s="18"/>
       <c r="AA559" s="15"/>
     </row>
-    <row r="560" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="25:27" ht="12">
       <c r="Y560" s="15"/>
       <c r="Z560" s="18"/>
       <c r="AA560" s="15"/>
     </row>
-    <row r="561" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="25:27" ht="12">
       <c r="Y561" s="15"/>
       <c r="Z561" s="18"/>
       <c r="AA561" s="15"/>
     </row>
-    <row r="562" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="25:27" ht="12">
       <c r="Y562" s="15"/>
       <c r="Z562" s="18"/>
       <c r="AA562" s="15"/>
     </row>
-    <row r="563" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="25:27" ht="12">
       <c r="Y563" s="15"/>
       <c r="Z563" s="18"/>
       <c r="AA563" s="15"/>
     </row>
-    <row r="564" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="25:27" ht="12">
       <c r="Y564" s="15"/>
       <c r="Z564" s="18"/>
       <c r="AA564" s="15"/>
     </row>
-    <row r="565" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="25:27" ht="12">
       <c r="Y565" s="15"/>
       <c r="Z565" s="18"/>
       <c r="AA565" s="15"/>
     </row>
-    <row r="566" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="25:27" ht="12">
       <c r="Y566" s="15"/>
       <c r="Z566" s="18"/>
       <c r="AA566" s="15"/>
     </row>
-    <row r="567" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="25:27" ht="12">
       <c r="Y567" s="15"/>
       <c r="Z567" s="18"/>
       <c r="AA567" s="15"/>
     </row>
-    <row r="568" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="25:27" ht="12">
       <c r="Y568" s="15"/>
       <c r="Z568" s="18"/>
       <c r="AA568" s="15"/>
     </row>
-    <row r="569" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="25:27" ht="12">
       <c r="Y569" s="15"/>
       <c r="Z569" s="18"/>
       <c r="AA569" s="15"/>
     </row>
-    <row r="570" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="25:27" ht="12">
       <c r="Y570" s="15"/>
       <c r="Z570" s="18"/>
       <c r="AA570" s="15"/>
     </row>
-    <row r="571" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="25:27" ht="12">
       <c r="Y571" s="15"/>
       <c r="Z571" s="18"/>
       <c r="AA571" s="15"/>
     </row>
-    <row r="572" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="25:27" ht="12">
       <c r="Y572" s="15"/>
       <c r="Z572" s="18"/>
       <c r="AA572" s="15"/>
     </row>
-    <row r="573" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="25:27" ht="12">
       <c r="Y573" s="15"/>
       <c r="Z573" s="18"/>
       <c r="AA573" s="15"/>
     </row>
-    <row r="574" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="574" spans="25:27" ht="12">
       <c r="Y574" s="15"/>
       <c r="Z574" s="18"/>
       <c r="AA574" s="15"/>
     </row>
-    <row r="575" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="575" spans="25:27" ht="12">
       <c r="Y575" s="15"/>
       <c r="Z575" s="18"/>
       <c r="AA575" s="15"/>
     </row>
-    <row r="576" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="576" spans="25:27" ht="12">
       <c r="Y576" s="15"/>
       <c r="Z576" s="18"/>
       <c r="AA576" s="15"/>
     </row>
-    <row r="577" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="577" spans="25:27" ht="12">
       <c r="Y577" s="15"/>
       <c r="Z577" s="18"/>
       <c r="AA577" s="15"/>
     </row>
-    <row r="578" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="578" spans="25:27" ht="12">
       <c r="Y578" s="15"/>
       <c r="Z578" s="18"/>
       <c r="AA578" s="15"/>
     </row>
-    <row r="579" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="579" spans="25:27" ht="12">
       <c r="Y579" s="15"/>
       <c r="Z579" s="18"/>
       <c r="AA579" s="15"/>
     </row>
-    <row r="580" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="580" spans="25:27" ht="12">
       <c r="Y580" s="15"/>
       <c r="Z580" s="18"/>
       <c r="AA580" s="15"/>
     </row>
-    <row r="581" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="581" spans="25:27" ht="12">
       <c r="Y581" s="15"/>
       <c r="Z581" s="18"/>
       <c r="AA581" s="15"/>
     </row>
-    <row r="582" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="582" spans="25:27" ht="12">
       <c r="Y582" s="15"/>
       <c r="Z582" s="18"/>
       <c r="AA582" s="15"/>
     </row>
-    <row r="583" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="583" spans="25:27" ht="12">
       <c r="Y583" s="15"/>
       <c r="Z583" s="18"/>
       <c r="AA583" s="15"/>
     </row>
-    <row r="584" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="584" spans="25:27" ht="12">
       <c r="Y584" s="15"/>
       <c r="Z584" s="18"/>
       <c r="AA584" s="15"/>
     </row>
-    <row r="585" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="585" spans="25:27" ht="12">
       <c r="Y585" s="15"/>
       <c r="Z585" s="18"/>
       <c r="AA585" s="15"/>
     </row>
-    <row r="586" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="586" spans="25:27" ht="12">
       <c r="Y586" s="15"/>
       <c r="Z586" s="18"/>
       <c r="AA586" s="15"/>
     </row>
-    <row r="587" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="587" spans="25:27" ht="12">
       <c r="Y587" s="15"/>
       <c r="Z587" s="18"/>
       <c r="AA587" s="15"/>
     </row>
-    <row r="588" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="588" spans="25:27" ht="12">
       <c r="Y588" s="15"/>
       <c r="Z588" s="18"/>
       <c r="AA588" s="15"/>
     </row>
-    <row r="589" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="589" spans="25:27" ht="12">
       <c r="Y589" s="15"/>
       <c r="Z589" s="18"/>
       <c r="AA589" s="15"/>
     </row>
-    <row r="590" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="590" spans="25:27" ht="12">
       <c r="Y590" s="15"/>
       <c r="Z590" s="18"/>
       <c r="AA590" s="15"/>
     </row>
-    <row r="591" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="591" spans="25:27" ht="12">
       <c r="Y591" s="15"/>
       <c r="Z591" s="18"/>
       <c r="AA591" s="15"/>
     </row>
-    <row r="592" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="592" spans="25:27" ht="12">
       <c r="Y592" s="15"/>
       <c r="Z592" s="18"/>
       <c r="AA592" s="15"/>
     </row>
-    <row r="593" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="593" spans="25:27" ht="12">
       <c r="Y593" s="15"/>
       <c r="Z593" s="18"/>
       <c r="AA593" s="15"/>
     </row>
-    <row r="594" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="594" spans="25:27" ht="12">
       <c r="Y594" s="15"/>
       <c r="Z594" s="18"/>
       <c r="AA594" s="15"/>
     </row>
-    <row r="595" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="595" spans="25:27" ht="12">
       <c r="Y595" s="15"/>
       <c r="Z595" s="18"/>
       <c r="AA595" s="15"/>
     </row>
-    <row r="596" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="596" spans="25:27" ht="12">
       <c r="Y596" s="15"/>
       <c r="Z596" s="18"/>
       <c r="AA596" s="15"/>
     </row>
-    <row r="597" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="597" spans="25:27" ht="12">
       <c r="Y597" s="15"/>
       <c r="Z597" s="18"/>
       <c r="AA597" s="15"/>
     </row>
-    <row r="598" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="598" spans="25:27" ht="12">
       <c r="Y598" s="15"/>
       <c r="Z598" s="18"/>
       <c r="AA598" s="15"/>
     </row>
-    <row r="599" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="599" spans="25:27" ht="12">
       <c r="Y599" s="15"/>
       <c r="Z599" s="18"/>
       <c r="AA599" s="15"/>
     </row>
-    <row r="600" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="600" spans="25:27" ht="12">
       <c r="Y600" s="15"/>
       <c r="Z600" s="18"/>
       <c r="AA600" s="15"/>
     </row>
-    <row r="601" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="601" spans="25:27" ht="12">
       <c r="Y601" s="15"/>
       <c r="Z601" s="18"/>
       <c r="AA601" s="15"/>
     </row>
-    <row r="602" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="602" spans="25:27" ht="12">
       <c r="Y602" s="15"/>
       <c r="Z602" s="18"/>
       <c r="AA602" s="15"/>
     </row>
-    <row r="603" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="603" spans="25:27" ht="12">
       <c r="Y603" s="15"/>
       <c r="Z603" s="18"/>
       <c r="AA603" s="15"/>
     </row>
-    <row r="604" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="604" spans="25:27" ht="12">
       <c r="Y604" s="15"/>
       <c r="Z604" s="18"/>
       <c r="AA604" s="15"/>
     </row>
-    <row r="605" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="605" spans="25:27" ht="12">
       <c r="Y605" s="15"/>
       <c r="Z605" s="18"/>
       <c r="AA605" s="15"/>
     </row>
-    <row r="606" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="606" spans="25:27" ht="12">
       <c r="Y606" s="15"/>
       <c r="Z606" s="18"/>
       <c r="AA606" s="15"/>
     </row>
-    <row r="607" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="607" spans="25:27" ht="12">
       <c r="Y607" s="15"/>
       <c r="Z607" s="18"/>
       <c r="AA607" s="15"/>
     </row>
-    <row r="608" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="608" spans="25:27" ht="12">
       <c r="Y608" s="15"/>
       <c r="Z608" s="18"/>
       <c r="AA608" s="15"/>
     </row>
-    <row r="609" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="609" spans="25:27" ht="12">
       <c r="Y609" s="15"/>
       <c r="Z609" s="18"/>
       <c r="AA609" s="15"/>
     </row>
-    <row r="610" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="610" spans="25:27" ht="12">
       <c r="Y610" s="15"/>
       <c r="Z610" s="18"/>
       <c r="AA610" s="15"/>
     </row>
-    <row r="611" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="611" spans="25:27" ht="12">
       <c r="Y611" s="15"/>
       <c r="Z611" s="18"/>
       <c r="AA611" s="15"/>
     </row>
-    <row r="612" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="612" spans="25:27" ht="12">
       <c r="Y612" s="15"/>
       <c r="Z612" s="18"/>
       <c r="AA612" s="15"/>
     </row>
-    <row r="613" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="613" spans="25:27" ht="12">
       <c r="Y613" s="15"/>
       <c r="Z613" s="18"/>
       <c r="AA613" s="15"/>
     </row>
-    <row r="614" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="614" spans="25:27" ht="12">
       <c r="Y614" s="15"/>
       <c r="Z614" s="18"/>
       <c r="AA614" s="15"/>
     </row>
-    <row r="615" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="615" spans="25:27" ht="12">
       <c r="Y615" s="15"/>
       <c r="Z615" s="18"/>
       <c r="AA615" s="15"/>
     </row>
-    <row r="616" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="616" spans="25:27" ht="12">
       <c r="Y616" s="15"/>
       <c r="Z616" s="18"/>
       <c r="AA616" s="15"/>
     </row>
-    <row r="617" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="617" spans="25:27" ht="12">
       <c r="Y617" s="15"/>
       <c r="Z617" s="18"/>
       <c r="AA617" s="15"/>
     </row>
-    <row r="618" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="618" spans="25:27" ht="12">
       <c r="Y618" s="15"/>
       <c r="Z618" s="18"/>
       <c r="AA618" s="15"/>
     </row>
-    <row r="619" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="619" spans="25:27" ht="12">
       <c r="Y619" s="15"/>
       <c r="Z619" s="18"/>
       <c r="AA619" s="15"/>
     </row>
-    <row r="620" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="620" spans="25:27" ht="12">
       <c r="Y620" s="15"/>
       <c r="Z620" s="18"/>
       <c r="AA620" s="15"/>
     </row>
-    <row r="621" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="621" spans="25:27" ht="12">
       <c r="Y621" s="15"/>
       <c r="Z621" s="18"/>
       <c r="AA621" s="15"/>
     </row>
-    <row r="622" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="622" spans="25:27" ht="12">
       <c r="Y622" s="15"/>
       <c r="Z622" s="18"/>
       <c r="AA622" s="15"/>
     </row>
-    <row r="623" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="623" spans="25:27" ht="12">
       <c r="Y623" s="15"/>
       <c r="Z623" s="18"/>
       <c r="AA623" s="15"/>
     </row>
-    <row r="624" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="624" spans="25:27" ht="12">
       <c r="Y624" s="15"/>
       <c r="Z624" s="18"/>
       <c r="AA624" s="15"/>
     </row>
-    <row r="625" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="625" spans="25:27" ht="12">
       <c r="Y625" s="15"/>
       <c r="Z625" s="18"/>
       <c r="AA625" s="15"/>
     </row>
-    <row r="626" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="626" spans="25:27" ht="12">
       <c r="Y626" s="15"/>
       <c r="Z626" s="18"/>
       <c r="AA626" s="15"/>
     </row>
-    <row r="627" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="627" spans="25:27" ht="12">
       <c r="Y627" s="15"/>
       <c r="Z627" s="18"/>
       <c r="AA627" s="15"/>
     </row>
-    <row r="628" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="628" spans="25:27" ht="12">
       <c r="Y628" s="15"/>
       <c r="Z628" s="18"/>
       <c r="AA628" s="15"/>
     </row>
-    <row r="629" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="629" spans="25:27" ht="12">
       <c r="Y629" s="15"/>
       <c r="Z629" s="18"/>
       <c r="AA629" s="15"/>
     </row>
-    <row r="630" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="630" spans="25:27" ht="12">
       <c r="Y630" s="15"/>
       <c r="Z630" s="18"/>
       <c r="AA630" s="15"/>
     </row>
-    <row r="631" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="631" spans="25:27" ht="12">
       <c r="Y631" s="15"/>
       <c r="Z631" s="18"/>
       <c r="AA631" s="15"/>
     </row>
-    <row r="632" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="632" spans="25:27" ht="12">
       <c r="Y632" s="15"/>
       <c r="Z632" s="18"/>
       <c r="AA632" s="15"/>
     </row>
-    <row r="633" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="633" spans="25:27" ht="12">
       <c r="Y633" s="15"/>
       <c r="Z633" s="18"/>
       <c r="AA633" s="15"/>
     </row>
-    <row r="634" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="634" spans="25:27" ht="12">
       <c r="Y634" s="15"/>
       <c r="Z634" s="18"/>
       <c r="AA634" s="15"/>
     </row>
-    <row r="635" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="635" spans="25:27" ht="12">
       <c r="Y635" s="15"/>
       <c r="Z635" s="18"/>
       <c r="AA635" s="15"/>
     </row>
-    <row r="636" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="636" spans="25:27" ht="12">
       <c r="Y636" s="15"/>
       <c r="Z636" s="18"/>
       <c r="AA636" s="15"/>
     </row>
-    <row r="637" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="637" spans="25:27" ht="12">
       <c r="Y637" s="15"/>
       <c r="Z637" s="18"/>
       <c r="AA637" s="15"/>
     </row>
-    <row r="638" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="638" spans="25:27" ht="12">
       <c r="Y638" s="15"/>
       <c r="Z638" s="18"/>
       <c r="AA638" s="15"/>
     </row>
-    <row r="639" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="639" spans="25:27" ht="12">
       <c r="Y639" s="15"/>
       <c r="Z639" s="18"/>
       <c r="AA639" s="15"/>
     </row>
-    <row r="640" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="640" spans="25:27" ht="12">
       <c r="Y640" s="15"/>
       <c r="Z640" s="18"/>
       <c r="AA640" s="15"/>
     </row>
-    <row r="641" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="641" spans="25:27" ht="12">
       <c r="Y641" s="15"/>
       <c r="Z641" s="18"/>
       <c r="AA641" s="15"/>
     </row>
-    <row r="642" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="642" spans="25:27" ht="12">
       <c r="Y642" s="15"/>
       <c r="Z642" s="18"/>
       <c r="AA642" s="15"/>
     </row>
-    <row r="643" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="643" spans="25:27" ht="12">
       <c r="Y643" s="15"/>
       <c r="Z643" s="18"/>
       <c r="AA643" s="15"/>
     </row>
-    <row r="644" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="644" spans="25:27" ht="12">
       <c r="Y644" s="15"/>
       <c r="Z644" s="18"/>
       <c r="AA644" s="15"/>
     </row>
-    <row r="645" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="645" spans="25:27" ht="12">
       <c r="Y645" s="15"/>
       <c r="Z645" s="18"/>
       <c r="AA645" s="15"/>
     </row>
-    <row r="646" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="646" spans="25:27" ht="12">
       <c r="Y646" s="15"/>
       <c r="Z646" s="18"/>
       <c r="AA646" s="15"/>
     </row>
-    <row r="647" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="647" spans="25:27" ht="12">
       <c r="Y647" s="15"/>
       <c r="Z647" s="18"/>
       <c r="AA647" s="15"/>
     </row>
-    <row r="648" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="648" spans="25:27" ht="12">
       <c r="Y648" s="15"/>
       <c r="Z648" s="18"/>
       <c r="AA648" s="15"/>
     </row>
-    <row r="649" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="649" spans="25:27" ht="12">
       <c r="Y649" s="15"/>
       <c r="Z649" s="18"/>
       <c r="AA649" s="15"/>
     </row>
-    <row r="650" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="650" spans="25:27" ht="12">
       <c r="Y650" s="15"/>
       <c r="Z650" s="18"/>
       <c r="AA650" s="15"/>
     </row>
-    <row r="651" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="651" spans="25:27" ht="12">
       <c r="Y651" s="15"/>
       <c r="Z651" s="18"/>
       <c r="AA651" s="15"/>
     </row>
-    <row r="652" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="652" spans="25:27" ht="12">
       <c r="Y652" s="15"/>
       <c r="Z652" s="18"/>
       <c r="AA652" s="15"/>
     </row>
-    <row r="653" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="653" spans="25:27" ht="12">
       <c r="Y653" s="15"/>
       <c r="Z653" s="18"/>
       <c r="AA653" s="15"/>
     </row>
-    <row r="654" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="654" spans="25:27" ht="12">
       <c r="Y654" s="15"/>
       <c r="Z654" s="18"/>
       <c r="AA654" s="15"/>
     </row>
-    <row r="655" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="655" spans="25:27" ht="12">
       <c r="Y655" s="15"/>
       <c r="Z655" s="18"/>
       <c r="AA655" s="15"/>
     </row>
-    <row r="656" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="656" spans="25:27" ht="12">
       <c r="Y656" s="15"/>
       <c r="Z656" s="18"/>
       <c r="AA656" s="15"/>
     </row>
-    <row r="657" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="657" spans="25:27" ht="12">
       <c r="Y657" s="15"/>
       <c r="Z657" s="18"/>
       <c r="AA657" s="15"/>
     </row>
-    <row r="658" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="658" spans="25:27" ht="12">
       <c r="Y658" s="15"/>
       <c r="Z658" s="18"/>
       <c r="AA658" s="15"/>
     </row>
-    <row r="659" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="659" spans="25:27" ht="12">
       <c r="Y659" s="15"/>
       <c r="Z659" s="18"/>
       <c r="AA659" s="15"/>
     </row>
-    <row r="660" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="660" spans="25:27" ht="12">
       <c r="Y660" s="15"/>
       <c r="Z660" s="18"/>
       <c r="AA660" s="15"/>
     </row>
-    <row r="661" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="661" spans="25:27" ht="12">
       <c r="Y661" s="15"/>
       <c r="Z661" s="18"/>
       <c r="AA661" s="15"/>
     </row>
-    <row r="662" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="662" spans="25:27" ht="12">
       <c r="Y662" s="15"/>
       <c r="Z662" s="18"/>
       <c r="AA662" s="15"/>
     </row>
-    <row r="663" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="663" spans="25:27" ht="12">
       <c r="Y663" s="15"/>
       <c r="Z663" s="18"/>
       <c r="AA663" s="15"/>
     </row>
-    <row r="664" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="664" spans="25:27" ht="12">
       <c r="Y664" s="15"/>
       <c r="Z664" s="18"/>
       <c r="AA664" s="15"/>
     </row>
-    <row r="665" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="665" spans="25:27" ht="12">
       <c r="Y665" s="15"/>
       <c r="Z665" s="18"/>
       <c r="AA665" s="15"/>
     </row>
-    <row r="666" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="666" spans="25:27" ht="12">
       <c r="Y666" s="15"/>
       <c r="Z666" s="18"/>
       <c r="AA666" s="15"/>
     </row>
-    <row r="667" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="667" spans="25:27" ht="12">
       <c r="Y667" s="15"/>
       <c r="Z667" s="18"/>
       <c r="AA667" s="15"/>
     </row>
-    <row r="668" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="668" spans="25:27" ht="12">
       <c r="Y668" s="15"/>
       <c r="Z668" s="18"/>
       <c r="AA668" s="15"/>
     </row>
-    <row r="669" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="669" spans="25:27" ht="12">
       <c r="Y669" s="15"/>
       <c r="Z669" s="18"/>
       <c r="AA669" s="15"/>
     </row>
-    <row r="670" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="670" spans="25:27" ht="12">
       <c r="Y670" s="15"/>
       <c r="Z670" s="18"/>
       <c r="AA670" s="15"/>
     </row>
-    <row r="671" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="671" spans="25:27" ht="12">
       <c r="Y671" s="15"/>
       <c r="Z671" s="18"/>
       <c r="AA671" s="15"/>
     </row>
-    <row r="672" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="672" spans="25:27" ht="12">
       <c r="Y672" s="15"/>
       <c r="Z672" s="18"/>
       <c r="AA672" s="15"/>
     </row>
-    <row r="673" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="673" spans="25:27" ht="12">
       <c r="Y673" s="15"/>
       <c r="Z673" s="18"/>
       <c r="AA673" s="15"/>
     </row>
-    <row r="674" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="674" spans="25:27" ht="12">
       <c r="Y674" s="15"/>
       <c r="Z674" s="18"/>
       <c r="AA674" s="15"/>
     </row>
-    <row r="675" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="675" spans="25:27" ht="12">
       <c r="Y675" s="15"/>
       <c r="Z675" s="18"/>
       <c r="AA675" s="15"/>
     </row>
-    <row r="676" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="676" spans="25:27" ht="12">
       <c r="Y676" s="15"/>
       <c r="Z676" s="18"/>
       <c r="AA676" s="15"/>
     </row>
-    <row r="677" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="677" spans="25:27" ht="12">
       <c r="Y677" s="15"/>
       <c r="Z677" s="18"/>
       <c r="AA677" s="15"/>
     </row>
-    <row r="678" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="678" spans="25:27" ht="12">
       <c r="Y678" s="15"/>
       <c r="Z678" s="18"/>
       <c r="AA678" s="15"/>
     </row>
-    <row r="679" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="679" spans="25:27" ht="12">
       <c r="Y679" s="15"/>
       <c r="Z679" s="18"/>
       <c r="AA679" s="15"/>
     </row>
-    <row r="680" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="680" spans="25:27" ht="12">
       <c r="Y680" s="15"/>
       <c r="Z680" s="18"/>
       <c r="AA680" s="15"/>
     </row>
-    <row r="681" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="681" spans="25:27" ht="12">
       <c r="Y681" s="15"/>
       <c r="Z681" s="18"/>
       <c r="AA681" s="15"/>
     </row>
-    <row r="682" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="682" spans="25:27" ht="12">
       <c r="Y682" s="15"/>
       <c r="Z682" s="18"/>
       <c r="AA682" s="15"/>
     </row>
-    <row r="683" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="683" spans="25:27" ht="12">
       <c r="Y683" s="15"/>
       <c r="Z683" s="18"/>
       <c r="AA683" s="15"/>
     </row>
-    <row r="684" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="684" spans="25:27" ht="12">
       <c r="Y684" s="15"/>
       <c r="Z684" s="18"/>
       <c r="AA684" s="15"/>
     </row>
-    <row r="685" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="685" spans="25:27" ht="12">
       <c r="Y685" s="15"/>
       <c r="Z685" s="18"/>
       <c r="AA685" s="15"/>
     </row>
-    <row r="686" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="686" spans="25:27" ht="12">
       <c r="Y686" s="15"/>
       <c r="Z686" s="18"/>
       <c r="AA686" s="15"/>
     </row>
-    <row r="687" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="687" spans="25:27" ht="12">
       <c r="Y687" s="15"/>
       <c r="Z687" s="18"/>
       <c r="AA687" s="15"/>
     </row>
-    <row r="688" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="688" spans="25:27" ht="12">
       <c r="Y688" s="15"/>
       <c r="Z688" s="18"/>
       <c r="AA688" s="15"/>
     </row>
-    <row r="689" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="689" spans="25:27" ht="12">
       <c r="Y689" s="15"/>
       <c r="Z689" s="18"/>
       <c r="AA689" s="15"/>
     </row>
-    <row r="690" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="690" spans="25:27" ht="12">
       <c r="Y690" s="15"/>
       <c r="Z690" s="18"/>
       <c r="AA690" s="15"/>
     </row>
-    <row r="691" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="691" spans="25:27" ht="12">
       <c r="Y691" s="15"/>
       <c r="Z691" s="18"/>
       <c r="AA691" s="15"/>
     </row>
-    <row r="692" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="692" spans="25:27" ht="12">
       <c r="Y692" s="15"/>
       <c r="Z692" s="18"/>
       <c r="AA692" s="15"/>
     </row>
-    <row r="693" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="693" spans="25:27" ht="12">
       <c r="Y693" s="15"/>
       <c r="Z693" s="18"/>
       <c r="AA693" s="15"/>
     </row>
-    <row r="694" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="694" spans="25:27" ht="12">
       <c r="Y694" s="15"/>
       <c r="Z694" s="18"/>
       <c r="AA694" s="15"/>
     </row>
-    <row r="695" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="695" spans="25:27" ht="12">
       <c r="Y695" s="15"/>
       <c r="Z695" s="18"/>
       <c r="AA695" s="15"/>
     </row>
-    <row r="696" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="696" spans="25:27" ht="12">
       <c r="Y696" s="15"/>
       <c r="Z696" s="18"/>
       <c r="AA696" s="15"/>
     </row>
-    <row r="697" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="697" spans="25:27" ht="12">
       <c r="Y697" s="15"/>
       <c r="Z697" s="18"/>
       <c r="AA697" s="15"/>
     </row>
-    <row r="698" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="698" spans="25:27" ht="12">
       <c r="Y698" s="15"/>
       <c r="Z698" s="18"/>
       <c r="AA698" s="15"/>
     </row>
-    <row r="699" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="699" spans="25:27" ht="12">
       <c r="Y699" s="15"/>
       <c r="Z699" s="18"/>
       <c r="AA699" s="15"/>
     </row>
-    <row r="700" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="700" spans="25:27" ht="12">
       <c r="Y700" s="15"/>
       <c r="Z700" s="18"/>
       <c r="AA700" s="15"/>
     </row>
-    <row r="701" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="701" spans="25:27" ht="12">
       <c r="Y701" s="15"/>
       <c r="Z701" s="18"/>
       <c r="AA701" s="15"/>
     </row>
-    <row r="702" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="702" spans="25:27" ht="12">
       <c r="Y702" s="15"/>
       <c r="Z702" s="18"/>
       <c r="AA702" s="15"/>
     </row>
-    <row r="703" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="703" spans="25:27" ht="12">
       <c r="Y703" s="15"/>
       <c r="Z703" s="18"/>
       <c r="AA703" s="15"/>
     </row>
-    <row r="704" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="704" spans="25:27" ht="12">
       <c r="Y704" s="15"/>
       <c r="Z704" s="18"/>
       <c r="AA704" s="15"/>
     </row>
-    <row r="705" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="705" spans="25:27" ht="12">
       <c r="Y705" s="15"/>
       <c r="Z705" s="18"/>
       <c r="AA705" s="15"/>
     </row>
-    <row r="706" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="706" spans="25:27" ht="12">
       <c r="Y706" s="15"/>
       <c r="Z706" s="18"/>
       <c r="AA706" s="15"/>
     </row>
-    <row r="707" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="707" spans="25:27" ht="12">
       <c r="Y707" s="15"/>
       <c r="Z707" s="18"/>
       <c r="AA707" s="15"/>
     </row>
-    <row r="708" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="708" spans="25:27" ht="12">
       <c r="Y708" s="15"/>
       <c r="Z708" s="18"/>
       <c r="AA708" s="15"/>
     </row>
-    <row r="709" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="709" spans="25:27" ht="12">
       <c r="Y709" s="15"/>
       <c r="Z709" s="18"/>
       <c r="AA709" s="15"/>
     </row>
-    <row r="710" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="710" spans="25:27" ht="12">
       <c r="Y710" s="15"/>
       <c r="Z710" s="18"/>
       <c r="AA710" s="15"/>
     </row>
-    <row r="711" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="711" spans="25:27" ht="12">
       <c r="Y711" s="15"/>
       <c r="Z711" s="18"/>
       <c r="AA711" s="15"/>
     </row>
-    <row r="712" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="712" spans="25:27" ht="12">
       <c r="Y712" s="15"/>
       <c r="Z712" s="18"/>
       <c r="AA712" s="15"/>
     </row>
-    <row r="713" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="713" spans="25:27" ht="12">
       <c r="Y713" s="15"/>
       <c r="Z713" s="18"/>
       <c r="AA713" s="15"/>
     </row>
-    <row r="714" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="714" spans="25:27" ht="12">
       <c r="Y714" s="15"/>
       <c r="Z714" s="18"/>
       <c r="AA714" s="15"/>
     </row>
-    <row r="715" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="715" spans="25:27" ht="12">
       <c r="Y715" s="15"/>
       <c r="Z715" s="18"/>
       <c r="AA715" s="15"/>
     </row>
-    <row r="716" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="716" spans="25:27" ht="12">
       <c r="Y716" s="15"/>
       <c r="Z716" s="18"/>
       <c r="AA716" s="15"/>
     </row>
-    <row r="717" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="717" spans="25:27" ht="12">
       <c r="Y717" s="15"/>
       <c r="Z717" s="18"/>
       <c r="AA717" s="15"/>
     </row>
-    <row r="718" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="718" spans="25:27" ht="12">
       <c r="Y718" s="15"/>
       <c r="Z718" s="18"/>
       <c r="AA718" s="15"/>
     </row>
-    <row r="719" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="719" spans="25:27" ht="12">
       <c r="Y719" s="15"/>
       <c r="Z719" s="18"/>
       <c r="AA719" s="15"/>
     </row>
-    <row r="720" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="720" spans="25:27" ht="12">
       <c r="Y720" s="15"/>
       <c r="Z720" s="18"/>
       <c r="AA720" s="15"/>
     </row>
-    <row r="721" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="721" spans="25:27" ht="12">
       <c r="Y721" s="15"/>
       <c r="Z721" s="18"/>
       <c r="AA721" s="15"/>
     </row>
-    <row r="722" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="722" spans="25:27" ht="12">
       <c r="Y722" s="15"/>
       <c r="Z722" s="18"/>
       <c r="AA722" s="15"/>
     </row>
-    <row r="723" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="723" spans="25:27" ht="12">
       <c r="Y723" s="15"/>
       <c r="Z723" s="18"/>
       <c r="AA723" s="15"/>
     </row>
-    <row r="724" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="724" spans="25:27" ht="12">
       <c r="Y724" s="15"/>
       <c r="Z724" s="18"/>
       <c r="AA724" s="15"/>
     </row>
-    <row r="725" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="725" spans="25:27" ht="12">
       <c r="Y725" s="15"/>
       <c r="Z725" s="18"/>
       <c r="AA725" s="15"/>
     </row>
-    <row r="726" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="726" spans="25:27" ht="12">
       <c r="Y726" s="15"/>
       <c r="Z726" s="18"/>
       <c r="AA726" s="15"/>
     </row>
-    <row r="727" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="727" spans="25:27" ht="12">
       <c r="Y727" s="15"/>
       <c r="Z727" s="18"/>
       <c r="AA727" s="15"/>
     </row>
-    <row r="728" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="728" spans="25:27" ht="12">
       <c r="Y728" s="15"/>
       <c r="Z728" s="18"/>
       <c r="AA728" s="15"/>
     </row>
-    <row r="729" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="729" spans="25:27" ht="12">
       <c r="Y729" s="15"/>
       <c r="Z729" s="18"/>
       <c r="AA729" s="15"/>
     </row>
-    <row r="730" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="730" spans="25:27" ht="12">
       <c r="Y730" s="15"/>
       <c r="Z730" s="18"/>
       <c r="AA730" s="15"/>
     </row>
-    <row r="731" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="731" spans="25:27" ht="12">
       <c r="Y731" s="15"/>
       <c r="Z731" s="18"/>
       <c r="AA731" s="15"/>
     </row>
-    <row r="732" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="732" spans="25:27" ht="12">
       <c r="Y732" s="15"/>
       <c r="Z732" s="18"/>
       <c r="AA732" s="15"/>
     </row>
-    <row r="733" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="733" spans="25:27" ht="12">
       <c r="Y733" s="15"/>
       <c r="Z733" s="18"/>
       <c r="AA733" s="15"/>
     </row>
-    <row r="734" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="734" spans="25:27" ht="12">
       <c r="Y734" s="15"/>
       <c r="Z734" s="18"/>
       <c r="AA734" s="15"/>
     </row>
-    <row r="735" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="735" spans="25:27" ht="12">
       <c r="Y735" s="15"/>
       <c r="Z735" s="18"/>
       <c r="AA735" s="15"/>
     </row>
-    <row r="736" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="736" spans="25:27" ht="12">
       <c r="Y736" s="15"/>
       <c r="Z736" s="18"/>
       <c r="AA736" s="15"/>
     </row>
-    <row r="737" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="737" spans="25:27" ht="12">
       <c r="Y737" s="15"/>
       <c r="Z737" s="18"/>
       <c r="AA737" s="15"/>
     </row>
-    <row r="738" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="738" spans="25:27" ht="12">
       <c r="Y738" s="15"/>
       <c r="Z738" s="18"/>
       <c r="AA738" s="15"/>
     </row>
-    <row r="739" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="739" spans="25:27" ht="12">
       <c r="Y739" s="15"/>
       <c r="Z739" s="18"/>
       <c r="AA739" s="15"/>
     </row>
-    <row r="740" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="740" spans="25:27" ht="12">
       <c r="Y740" s="15"/>
       <c r="Z740" s="18"/>
       <c r="AA740" s="15"/>
     </row>
-    <row r="741" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="741" spans="25:27" ht="12">
       <c r="Y741" s="15"/>
       <c r="Z741" s="18"/>
       <c r="AA741" s="15"/>
     </row>
-    <row r="742" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="742" spans="25:27" ht="12">
       <c r="Y742" s="15"/>
       <c r="Z742" s="18"/>
       <c r="AA742" s="15"/>
     </row>
-    <row r="743" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="743" spans="25:27" ht="12">
       <c r="Y743" s="15"/>
       <c r="Z743" s="18"/>
       <c r="AA743" s="15"/>
     </row>
-    <row r="744" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="744" spans="25:27" ht="12">
       <c r="Y744" s="15"/>
       <c r="Z744" s="18"/>
       <c r="AA744" s="15"/>
     </row>
-    <row r="745" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="745" spans="25:27" ht="12">
       <c r="Y745" s="15"/>
       <c r="Z745" s="18"/>
       <c r="AA745" s="15"/>
     </row>
-    <row r="746" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="746" spans="25:27" ht="12">
       <c r="Y746" s="15"/>
       <c r="Z746" s="18"/>
       <c r="AA746" s="15"/>
     </row>
-    <row r="747" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="747" spans="25:27" ht="12">
       <c r="Y747" s="15"/>
       <c r="Z747" s="18"/>
       <c r="AA747" s="15"/>
     </row>
-    <row r="748" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="748" spans="25:27" ht="12">
       <c r="Y748" s="15"/>
       <c r="Z748" s="18"/>
       <c r="AA748" s="15"/>
     </row>
-    <row r="749" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="749" spans="25:27" ht="12">
       <c r="Y749" s="15"/>
       <c r="Z749" s="18"/>
       <c r="AA749" s="15"/>
     </row>
-    <row r="750" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="750" spans="25:27" ht="12">
       <c r="Y750" s="15"/>
       <c r="Z750" s="18"/>
       <c r="AA750" s="15"/>
     </row>
-    <row r="751" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="751" spans="25:27" ht="12">
       <c r="Y751" s="15"/>
       <c r="Z751" s="18"/>
       <c r="AA751" s="15"/>
     </row>
-    <row r="752" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="752" spans="25:27" ht="12">
       <c r="Y752" s="15"/>
       <c r="Z752" s="18"/>
       <c r="AA752" s="15"/>
     </row>
-    <row r="753" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="753" spans="25:27" ht="12">
       <c r="Y753" s="15"/>
       <c r="Z753" s="18"/>
       <c r="AA753" s="15"/>
     </row>
-    <row r="754" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="754" spans="25:27" ht="12">
       <c r="Y754" s="15"/>
       <c r="Z754" s="18"/>
       <c r="AA754" s="15"/>
     </row>
-    <row r="755" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="755" spans="25:27" ht="12">
       <c r="Y755" s="15"/>
       <c r="Z755" s="18"/>
       <c r="AA755" s="15"/>
     </row>
-    <row r="756" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="756" spans="25:27" ht="12">
       <c r="Y756" s="15"/>
       <c r="Z756" s="18"/>
       <c r="AA756" s="15"/>
     </row>
-    <row r="757" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="757" spans="25:27" ht="12">
       <c r="Y757" s="15"/>
       <c r="Z757" s="18"/>
       <c r="AA757" s="15"/>
     </row>
-    <row r="758" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="758" spans="25:27" ht="12">
       <c r="Y758" s="15"/>
       <c r="Z758" s="18"/>
       <c r="AA758" s="15"/>
     </row>
-    <row r="759" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="759" spans="25:27" ht="12">
       <c r="Y759" s="15"/>
       <c r="Z759" s="18"/>
       <c r="AA759" s="15"/>
     </row>
-    <row r="760" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="760" spans="25:27" ht="12">
       <c r="Y760" s="15"/>
       <c r="Z760" s="18"/>
       <c r="AA760" s="15"/>
     </row>
-    <row r="761" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="761" spans="25:27" ht="12">
       <c r="Y761" s="15"/>
       <c r="Z761" s="18"/>
       <c r="AA761" s="15"/>
     </row>
-    <row r="762" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="762" spans="25:27" ht="12">
       <c r="Y762" s="15"/>
       <c r="Z762" s="18"/>
       <c r="AA762" s="15"/>
     </row>
-    <row r="763" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="763" spans="25:27" ht="12">
       <c r="Y763" s="15"/>
       <c r="Z763" s="18"/>
       <c r="AA763" s="15"/>
     </row>
-    <row r="764" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="764" spans="25:27" ht="12">
       <c r="Y764" s="15"/>
       <c r="Z764" s="18"/>
       <c r="AA764" s="15"/>
     </row>
-    <row r="765" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="765" spans="25:27" ht="12">
       <c r="Y765" s="15"/>
       <c r="Z765" s="18"/>
       <c r="AA765" s="15"/>
     </row>
-    <row r="766" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="766" spans="25:27" ht="12">
       <c r="Y766" s="15"/>
       <c r="Z766" s="18"/>
       <c r="AA766" s="15"/>
     </row>
-    <row r="767" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="767" spans="25:27" ht="12">
       <c r="Y767" s="15"/>
       <c r="Z767" s="18"/>
       <c r="AA767" s="15"/>
     </row>
-    <row r="768" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="768" spans="25:27" ht="12">
       <c r="Y768" s="15"/>
       <c r="Z768" s="18"/>
       <c r="AA768" s="15"/>
     </row>
-    <row r="769" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="769" spans="25:27" ht="12">
       <c r="Y769" s="15"/>
       <c r="Z769" s="18"/>
       <c r="AA769" s="15"/>
     </row>
-    <row r="770" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="770" spans="25:27" ht="12">
       <c r="Y770" s="15"/>
       <c r="Z770" s="18"/>
       <c r="AA770" s="15"/>
     </row>
-    <row r="771" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="771" spans="25:27" ht="12">
       <c r="Y771" s="15"/>
       <c r="Z771" s="18"/>
       <c r="AA771" s="15"/>
     </row>
-    <row r="772" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="772" spans="25:27" ht="12">
       <c r="Y772" s="15"/>
       <c r="Z772" s="18"/>
       <c r="AA772" s="15"/>
     </row>
-    <row r="773" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="773" spans="25:27" ht="12">
       <c r="Y773" s="15"/>
       <c r="Z773" s="18"/>
       <c r="AA773" s="15"/>
     </row>
-    <row r="774" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="774" spans="25:27" ht="12">
       <c r="Y774" s="15"/>
       <c r="Z774" s="18"/>
       <c r="AA774" s="15"/>
     </row>
-    <row r="775" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="775" spans="25:27" ht="12">
       <c r="Y775" s="15"/>
       <c r="Z775" s="18"/>
       <c r="AA775" s="15"/>
     </row>
-    <row r="776" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="776" spans="25:27" ht="12">
       <c r="Y776" s="15"/>
       <c r="Z776" s="18"/>
       <c r="AA776" s="15"/>
     </row>
-    <row r="777" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="777" spans="25:27" ht="12">
       <c r="Y777" s="15"/>
       <c r="Z777" s="18"/>
       <c r="AA777" s="15"/>
     </row>
-    <row r="778" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="778" spans="25:27" ht="12">
       <c r="Y778" s="15"/>
       <c r="Z778" s="18"/>
       <c r="AA778" s="15"/>
     </row>
-    <row r="779" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="779" spans="25:27" ht="12">
       <c r="Y779" s="15"/>
       <c r="Z779" s="18"/>
       <c r="AA779" s="15"/>
     </row>
-    <row r="780" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="780" spans="25:27" ht="12">
       <c r="Y780" s="15"/>
       <c r="Z780" s="18"/>
       <c r="AA780" s="15"/>
     </row>
-    <row r="781" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="781" spans="25:27" ht="12">
       <c r="Y781" s="15"/>
       <c r="Z781" s="18"/>
       <c r="AA781" s="15"/>
     </row>
-    <row r="782" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="782" spans="25:27" ht="12">
       <c r="Y782" s="15"/>
       <c r="Z782" s="18"/>
       <c r="AA782" s="15"/>
     </row>
-    <row r="783" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="783" spans="25:27" ht="12">
       <c r="Y783" s="15"/>
       <c r="Z783" s="18"/>
       <c r="AA783" s="15"/>
     </row>
-    <row r="784" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="784" spans="25:27" ht="12">
       <c r="Y784" s="15"/>
       <c r="Z784" s="18"/>
       <c r="AA784" s="15"/>
     </row>
-    <row r="785" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="785" spans="25:27" ht="12">
       <c r="Y785" s="15"/>
       <c r="Z785" s="18"/>
       <c r="AA785" s="15"/>
     </row>
-    <row r="786" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="786" spans="25:27" ht="12">
       <c r="Y786" s="15"/>
       <c r="Z786" s="18"/>
       <c r="AA786" s="15"/>
     </row>
-    <row r="787" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="787" spans="25:27" ht="12">
       <c r="Y787" s="15"/>
       <c r="Z787" s="18"/>
       <c r="AA787" s="15"/>
     </row>
-    <row r="788" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="788" spans="25:27" ht="12">
       <c r="Y788" s="15"/>
       <c r="Z788" s="18"/>
       <c r="AA788" s="15"/>
     </row>
-    <row r="789" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="789" spans="25:27" ht="12">
       <c r="Y789" s="15"/>
       <c r="Z789" s="18"/>
       <c r="AA789" s="15"/>
     </row>
-    <row r="790" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="790" spans="25:27" ht="12">
       <c r="Y790" s="15"/>
       <c r="Z790" s="18"/>
       <c r="AA790" s="15"/>
     </row>
-    <row r="791" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="791" spans="25:27" ht="12">
       <c r="Y791" s="15"/>
       <c r="Z791" s="18"/>
       <c r="AA791" s="15"/>
     </row>
-    <row r="792" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="792" spans="25:27" ht="12">
       <c r="Y792" s="15"/>
       <c r="Z792" s="18"/>
       <c r="AA792" s="15"/>
     </row>
-    <row r="793" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="793" spans="25:27" ht="12">
       <c r="Y793" s="15"/>
       <c r="Z793" s="18"/>
       <c r="AA793" s="15"/>
     </row>
-    <row r="794" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="794" spans="25:27" ht="12">
       <c r="Y794" s="15"/>
       <c r="Z794" s="18"/>
       <c r="AA794" s="15"/>
     </row>
-    <row r="795" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="795" spans="25:27" ht="12">
       <c r="Y795" s="15"/>
       <c r="Z795" s="18"/>
       <c r="AA795" s="15"/>
     </row>
-    <row r="796" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="796" spans="25:27" ht="12">
       <c r="Y796" s="15"/>
       <c r="Z796" s="18"/>
       <c r="AA796" s="15"/>
     </row>
-    <row r="797" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="797" spans="25:27" ht="12">
       <c r="Y797" s="15"/>
       <c r="Z797" s="18"/>
       <c r="AA797" s="15"/>
     </row>
-    <row r="798" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="798" spans="25:27" ht="12">
       <c r="Y798" s="15"/>
       <c r="Z798" s="18"/>
       <c r="AA798" s="15"/>
     </row>
-    <row r="799" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="799" spans="25:27" ht="12">
       <c r="Y799" s="15"/>
       <c r="Z799" s="18"/>
       <c r="AA799" s="15"/>
     </row>
-    <row r="800" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="800" spans="25:27" ht="12">
       <c r="Y800" s="15"/>
       <c r="Z800" s="18"/>
       <c r="AA800" s="15"/>
     </row>
-    <row r="801" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="801" spans="25:27" ht="12">
       <c r="Y801" s="15"/>
       <c r="Z801" s="18"/>
       <c r="AA801" s="15"/>
     </row>
-    <row r="802" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="802" spans="25:27" ht="12">
       <c r="Y802" s="15"/>
       <c r="Z802" s="18"/>
       <c r="AA802" s="15"/>
     </row>
-    <row r="803" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="803" spans="25:27" ht="12">
       <c r="Y803" s="15"/>
       <c r="Z803" s="18"/>
       <c r="AA803" s="15"/>
     </row>
-    <row r="804" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="804" spans="25:27" ht="12">
       <c r="Y804" s="15"/>
       <c r="Z804" s="18"/>
       <c r="AA804" s="15"/>
     </row>
-    <row r="805" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="805" spans="25:27" ht="12">
       <c r="Y805" s="15"/>
       <c r="Z805" s="18"/>
       <c r="AA805" s="15"/>
     </row>
-    <row r="806" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="806" spans="25:27" ht="12">
       <c r="Y806" s="15"/>
       <c r="Z806" s="18"/>
       <c r="AA806" s="15"/>
     </row>
-    <row r="807" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="807" spans="25:27" ht="12">
       <c r="Y807" s="15"/>
       <c r="Z807" s="18"/>
       <c r="AA807" s="15"/>
     </row>
-    <row r="808" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="808" spans="25:27" ht="12">
       <c r="Y808" s="15"/>
       <c r="Z808" s="18"/>
       <c r="AA808" s="15"/>
     </row>
-    <row r="809" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="809" spans="25:27" ht="12">
       <c r="Y809" s="15"/>
       <c r="Z809" s="18"/>
       <c r="AA809" s="15"/>
     </row>
-    <row r="810" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="810" spans="25:27" ht="12">
       <c r="Y810" s="15"/>
       <c r="Z810" s="18"/>
       <c r="AA810" s="15"/>
     </row>
-    <row r="811" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="811" spans="25:27" ht="12">
       <c r="Y811" s="15"/>
       <c r="Z811" s="18"/>
       <c r="AA811" s="15"/>
     </row>
-    <row r="812" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="812" spans="25:27" ht="12">
       <c r="Y812" s="15"/>
       <c r="Z812" s="18"/>
       <c r="AA812" s="15"/>
     </row>
-    <row r="813" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="813" spans="25:27" ht="12">
       <c r="Y813" s="15"/>
       <c r="Z813" s="18"/>
       <c r="AA813" s="15"/>
     </row>
-    <row r="814" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="814" spans="25:27" ht="12">
       <c r="Y814" s="15"/>
       <c r="Z814" s="18"/>
       <c r="AA814" s="15"/>
     </row>
-    <row r="815" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="815" spans="25:27" ht="12">
       <c r="Y815" s="15"/>
       <c r="Z815" s="18"/>
       <c r="AA815" s="15"/>
     </row>
-    <row r="816" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="816" spans="25:27" ht="12">
       <c r="Y816" s="15"/>
       <c r="Z816" s="18"/>
       <c r="AA816" s="15"/>
     </row>
-    <row r="817" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="817" spans="25:27" ht="12">
       <c r="Y817" s="15"/>
       <c r="Z817" s="18"/>
       <c r="AA817" s="15"/>
     </row>
-    <row r="818" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="818" spans="25:27" ht="12">
       <c r="Y818" s="15"/>
       <c r="Z818" s="18"/>
       <c r="AA818" s="15"/>
     </row>
-    <row r="819" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="819" spans="25:27" ht="12">
       <c r="Y819" s="15"/>
       <c r="Z819" s="18"/>
       <c r="AA819" s="15"/>
     </row>
-    <row r="820" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="820" spans="25:27" ht="12">
       <c r="Y820" s="15"/>
       <c r="Z820" s="18"/>
       <c r="AA820" s="15"/>
     </row>
-    <row r="821" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="821" spans="25:27" ht="12">
       <c r="Y821" s="15"/>
       <c r="Z821" s="18"/>
       <c r="AA821" s="15"/>
     </row>
-    <row r="822" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="822" spans="25:27" ht="12">
       <c r="Y822" s="15"/>
       <c r="Z822" s="18"/>
       <c r="AA822" s="15"/>
     </row>
-    <row r="823" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="823" spans="25:27" ht="12">
       <c r="Y823" s="15"/>
       <c r="Z823" s="18"/>
       <c r="AA823" s="15"/>
     </row>
-    <row r="824" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="824" spans="25:27" ht="12">
       <c r="Y824" s="15"/>
       <c r="Z824" s="18"/>
       <c r="AA824" s="15"/>
     </row>
-    <row r="825" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="825" spans="25:27" ht="12">
       <c r="Y825" s="15"/>
       <c r="Z825" s="18"/>
       <c r="AA825" s="15"/>
     </row>
-    <row r="826" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="826" spans="25:27" ht="12">
       <c r="Y826" s="15"/>
       <c r="Z826" s="18"/>
       <c r="AA826" s="15"/>
     </row>
-    <row r="827" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="827" spans="25:27" ht="12">
       <c r="Y827" s="15"/>
       <c r="Z827" s="18"/>
       <c r="AA827" s="15"/>
     </row>
-    <row r="828" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="828" spans="25:27" ht="12">
       <c r="Y828" s="15"/>
       <c r="Z828" s="18"/>
       <c r="AA828" s="15"/>
     </row>
-    <row r="829" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="829" spans="25:27" ht="12">
       <c r="Y829" s="15"/>
       <c r="Z829" s="18"/>
       <c r="AA829" s="15"/>
     </row>
-    <row r="830" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="830" spans="25:27" ht="12">
       <c r="Y830" s="15"/>
       <c r="Z830" s="18"/>
       <c r="AA830" s="15"/>
     </row>
-    <row r="831" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="831" spans="25:27" ht="12">
       <c r="Y831" s="15"/>
       <c r="Z831" s="18"/>
       <c r="AA831" s="15"/>
     </row>
-    <row r="832" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="832" spans="25:27" ht="12">
       <c r="Y832" s="15"/>
       <c r="Z832" s="18"/>
       <c r="AA832" s="15"/>
     </row>
-    <row r="833" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="833" spans="25:27" ht="12">
       <c r="Y833" s="15"/>
       <c r="Z833" s="18"/>
       <c r="AA833" s="15"/>
     </row>
-    <row r="834" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="834" spans="25:27" ht="12">
       <c r="Y834" s="15"/>
       <c r="Z834" s="18"/>
       <c r="AA834" s="15"/>
     </row>
-    <row r="835" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="835" spans="25:27" ht="12">
       <c r="Y835" s="15"/>
       <c r="Z835" s="18"/>
       <c r="AA835" s="15"/>
     </row>
-    <row r="836" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="836" spans="25:27" ht="12">
       <c r="Y836" s="15"/>
       <c r="Z836" s="18"/>
       <c r="AA836" s="15"/>
     </row>
-    <row r="837" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="837" spans="25:27" ht="12">
       <c r="Y837" s="15"/>
       <c r="Z837" s="18"/>
       <c r="AA837" s="15"/>
     </row>
-    <row r="838" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="838" spans="25:27" ht="12">
       <c r="Y838" s="15"/>
       <c r="Z838" s="18"/>
       <c r="AA838" s="15"/>
     </row>
-    <row r="839" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="839" spans="25:27" ht="12">
       <c r="Y839" s="15"/>
       <c r="Z839" s="18"/>
       <c r="AA839" s="15"/>
     </row>
-    <row r="840" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="840" spans="25:27" ht="12">
       <c r="Y840" s="15"/>
       <c r="Z840" s="18"/>
       <c r="AA840" s="15"/>
     </row>
-    <row r="841" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="841" spans="25:27" ht="12">
       <c r="Y841" s="15"/>
       <c r="Z841" s="18"/>
       <c r="AA841" s="15"/>
     </row>
-    <row r="842" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="842" spans="25:27" ht="12">
       <c r="Y842" s="15"/>
       <c r="Z842" s="18"/>
       <c r="AA842" s="15"/>
     </row>
-    <row r="843" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="843" spans="25:27" ht="12">
       <c r="Y843" s="15"/>
       <c r="Z843" s="18"/>
       <c r="AA843" s="15"/>
     </row>
-    <row r="844" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="844" spans="25:27" ht="12">
       <c r="Y844" s="15"/>
       <c r="Z844" s="18"/>
       <c r="AA844" s="15"/>
     </row>
-    <row r="845" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="845" spans="25:27" ht="12">
       <c r="Y845" s="15"/>
       <c r="Z845" s="18"/>
       <c r="AA845" s="15"/>
     </row>
-    <row r="846" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="846" spans="25:27" ht="12">
       <c r="Y846" s="15"/>
       <c r="Z846" s="18"/>
       <c r="AA846" s="15"/>
     </row>
-    <row r="847" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="847" spans="25:27" ht="12">
       <c r="Y847" s="15"/>
       <c r="Z847" s="18"/>
       <c r="AA847" s="15"/>
     </row>
-    <row r="848" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="848" spans="25:27" ht="12">
       <c r="Y848" s="15"/>
       <c r="Z848" s="18"/>
       <c r="AA848" s="15"/>
     </row>
-    <row r="849" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="849" spans="25:27" ht="12">
       <c r="Y849" s="15"/>
       <c r="Z849" s="18"/>
       <c r="AA849" s="15"/>
     </row>
-    <row r="850" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="850" spans="25:27" ht="12">
       <c r="Y850" s="15"/>
       <c r="Z850" s="18"/>
       <c r="AA850" s="15"/>
     </row>
-    <row r="851" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="851" spans="25:27" ht="12">
       <c r="Y851" s="15"/>
       <c r="Z851" s="18"/>
       <c r="AA851" s="15"/>
     </row>
-    <row r="852" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="852" spans="25:27" ht="12">
       <c r="Y852" s="15"/>
       <c r="Z852" s="18"/>
       <c r="AA852" s="15"/>
     </row>
-    <row r="853" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="853" spans="25:27" ht="12">
       <c r="Y853" s="15"/>
       <c r="Z853" s="18"/>
       <c r="AA853" s="15"/>
     </row>
-    <row r="854" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="854" spans="25:27" ht="12">
       <c r="Y854" s="15"/>
       <c r="Z854" s="18"/>
       <c r="AA854" s="15"/>
     </row>
-    <row r="855" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="855" spans="25:27" ht="12">
       <c r="Y855" s="15"/>
       <c r="Z855" s="18"/>
       <c r="AA855" s="15"/>
     </row>
-    <row r="856" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="856" spans="25:27" ht="12">
       <c r="Y856" s="15"/>
       <c r="Z856" s="18"/>
       <c r="AA856" s="15"/>
     </row>
-    <row r="857" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="857" spans="25:27" ht="12">
       <c r="Y857" s="15"/>
       <c r="Z857" s="18"/>
       <c r="AA857" s="15"/>
     </row>
-    <row r="858" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="858" spans="25:27" ht="12">
       <c r="Y858" s="15"/>
       <c r="Z858" s="18"/>
       <c r="AA858" s="15"/>
     </row>
-    <row r="859" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="859" spans="25:27" ht="12">
       <c r="Y859" s="15"/>
       <c r="Z859" s="18"/>
       <c r="AA859" s="15"/>
     </row>
-    <row r="860" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="860" spans="25:27" ht="12">
       <c r="Y860" s="15"/>
       <c r="Z860" s="18"/>
       <c r="AA860" s="15"/>
     </row>
-    <row r="861" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="861" spans="25:27" ht="12">
       <c r="Y861" s="15"/>
       <c r="Z861" s="18"/>
       <c r="AA861" s="15"/>
     </row>
-    <row r="862" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="862" spans="25:27" ht="12">
       <c r="Y862" s="15"/>
       <c r="Z862" s="18"/>
       <c r="AA862" s="15"/>
     </row>
-    <row r="863" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="863" spans="25:27" ht="12">
       <c r="Y863" s="15"/>
       <c r="Z863" s="18"/>
       <c r="AA863" s="15"/>
     </row>
-    <row r="864" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="864" spans="25:27" ht="12">
       <c r="Y864" s="15"/>
       <c r="Z864" s="18"/>
       <c r="AA864" s="15"/>
     </row>
-    <row r="865" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="865" spans="25:27" ht="12">
       <c r="Y865" s="15"/>
       <c r="Z865" s="18"/>
       <c r="AA865" s="15"/>
     </row>
-    <row r="866" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="866" spans="25:27" ht="12">
       <c r="Y866" s="15"/>
       <c r="Z866" s="18"/>
       <c r="AA866" s="15"/>
     </row>
-    <row r="867" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="867" spans="25:27" ht="12">
       <c r="Y867" s="15"/>
       <c r="Z867" s="18"/>
       <c r="AA867" s="15"/>
     </row>
-    <row r="868" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="868" spans="25:27" ht="12">
       <c r="Y868" s="15"/>
       <c r="Z868" s="18"/>
       <c r="AA868" s="15"/>
     </row>
-    <row r="869" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="869" spans="25:27" ht="12">
       <c r="Y869" s="15"/>
       <c r="Z869" s="18"/>
       <c r="AA869" s="15"/>
     </row>
-    <row r="870" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="870" spans="25:27" ht="12">
       <c r="Y870" s="15"/>
       <c r="Z870" s="18"/>
       <c r="AA870" s="15"/>
     </row>
-    <row r="871" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="871" spans="25:27" ht="12">
       <c r="Y871" s="15"/>
       <c r="Z871" s="18"/>
       <c r="AA871" s="15"/>
     </row>
-    <row r="872" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="872" spans="25:27" ht="12">
       <c r="Y872" s="15"/>
       <c r="Z872" s="18"/>
       <c r="AA872" s="15"/>
     </row>
-    <row r="873" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="873" spans="25:27" ht="12">
       <c r="Y873" s="15"/>
       <c r="Z873" s="18"/>
       <c r="AA873" s="15"/>
     </row>
-    <row r="874" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="874" spans="25:27" ht="12">
       <c r="Y874" s="15"/>
       <c r="Z874" s="18"/>
       <c r="AA874" s="15"/>
     </row>
-    <row r="875" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="875" spans="25:27" ht="12">
       <c r="Y875" s="15"/>
       <c r="Z875" s="18"/>
       <c r="AA875" s="15"/>
     </row>
-    <row r="876" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="876" spans="25:27" ht="12">
       <c r="Y876" s="15"/>
       <c r="Z876" s="18"/>
       <c r="AA876" s="15"/>
     </row>
-    <row r="877" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="877" spans="25:27" ht="12">
       <c r="Y877" s="15"/>
       <c r="Z877" s="18"/>
       <c r="AA877" s="15"/>
     </row>
-    <row r="878" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="878" spans="25:27" ht="12">
       <c r="Y878" s="15"/>
       <c r="Z878" s="18"/>
       <c r="AA878" s="15"/>
     </row>
-    <row r="879" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="879" spans="25:27" ht="12">
       <c r="Y879" s="15"/>
       <c r="Z879" s="18"/>
       <c r="AA879" s="15"/>
     </row>
-    <row r="880" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="880" spans="25:27" ht="12">
       <c r="Y880" s="15"/>
       <c r="Z880" s="18"/>
       <c r="AA880" s="15"/>
     </row>
-    <row r="881" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="881" spans="25:27" ht="12">
       <c r="Y881" s="15"/>
       <c r="Z881" s="18"/>
       <c r="AA881" s="15"/>
     </row>
-    <row r="882" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="882" spans="25:27" ht="12">
       <c r="Y882" s="15"/>
       <c r="Z882" s="18"/>
       <c r="AA882" s="15"/>
     </row>
-    <row r="883" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="883" spans="25:27" ht="12">
       <c r="Y883" s="15"/>
       <c r="Z883" s="18"/>
       <c r="AA883" s="15"/>
     </row>
-    <row r="884" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="884" spans="25:27" ht="12">
       <c r="Y884" s="15"/>
       <c r="Z884" s="18"/>
       <c r="AA884" s="15"/>
     </row>
-    <row r="885" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="885" spans="25:27" ht="12">
       <c r="Y885" s="15"/>
       <c r="Z885" s="18"/>
       <c r="AA885" s="15"/>
     </row>
-    <row r="886" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="886" spans="25:27" ht="12">
       <c r="Y886" s="15"/>
       <c r="Z886" s="18"/>
       <c r="AA886" s="15"/>
     </row>
-    <row r="887" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="887" spans="25:27" ht="12">
       <c r="Y887" s="15"/>
       <c r="Z887" s="18"/>
       <c r="AA887" s="15"/>
     </row>
-    <row r="888" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="888" spans="25:27" ht="12">
       <c r="Y888" s="15"/>
       <c r="Z888" s="18"/>
       <c r="AA888" s="15"/>
     </row>
-    <row r="889" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="889" spans="25:27" ht="12">
       <c r="Y889" s="15"/>
       <c r="Z889" s="18"/>
       <c r="AA889" s="15"/>
     </row>
-    <row r="890" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="890" spans="25:27" ht="12">
       <c r="Y890" s="15"/>
       <c r="Z890" s="18"/>
       <c r="AA890" s="15"/>
     </row>
-    <row r="891" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="891" spans="25:27" ht="12">
       <c r="Y891" s="15"/>
       <c r="Z891" s="18"/>
       <c r="AA891" s="15"/>
     </row>
-    <row r="892" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="892" spans="25:27" ht="12">
       <c r="Y892" s="15"/>
       <c r="Z892" s="18"/>
       <c r="AA892" s="15"/>
     </row>
-    <row r="893" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="893" spans="25:27" ht="12">
       <c r="Y893" s="15"/>
       <c r="Z893" s="18"/>
       <c r="AA893" s="15"/>
     </row>
-    <row r="894" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="894" spans="25:27" ht="12">
       <c r="Y894" s="15"/>
       <c r="Z894" s="18"/>
       <c r="AA894" s="15"/>
     </row>
-    <row r="895" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="895" spans="25:27" ht="12">
       <c r="Y895" s="15"/>
       <c r="Z895" s="18"/>
       <c r="AA895" s="15"/>
     </row>
-    <row r="896" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="896" spans="25:27" ht="12">
       <c r="Y896" s="15"/>
       <c r="Z896" s="18"/>
       <c r="AA896" s="15"/>
     </row>
-    <row r="897" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="897" spans="25:27" ht="12">
       <c r="Y897" s="15"/>
       <c r="Z897" s="18"/>
       <c r="AA897" s="15"/>
     </row>
-    <row r="898" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="898" spans="25:27" ht="12">
       <c r="Y898" s="15"/>
       <c r="Z898" s="18"/>
       <c r="AA898" s="15"/>
     </row>
-    <row r="899" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="899" spans="25:27" ht="12">
       <c r="Y899" s="15"/>
       <c r="Z899" s="18"/>
       <c r="AA899" s="15"/>
     </row>
-    <row r="900" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="900" spans="25:27" ht="12">
       <c r="Y900" s="15"/>
       <c r="Z900" s="18"/>
       <c r="AA900" s="15"/>
     </row>
-    <row r="901" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="901" spans="25:27" ht="12">
       <c r="Y901" s="15"/>
       <c r="Z901" s="18"/>
       <c r="AA901" s="15"/>
     </row>
-    <row r="902" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="902" spans="25:27" ht="12">
       <c r="Y902" s="15"/>
       <c r="Z902" s="18"/>
       <c r="AA902" s="15"/>
     </row>
-    <row r="903" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="903" spans="25:27" ht="12">
       <c r="Y903" s="15"/>
       <c r="Z903" s="18"/>
       <c r="AA903" s="15"/>
     </row>
-    <row r="904" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="904" spans="25:27" ht="12">
       <c r="Y904" s="15"/>
       <c r="Z904" s="18"/>
       <c r="AA904" s="15"/>
     </row>
-    <row r="905" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="905" spans="25:27" ht="12">
       <c r="Y905" s="15"/>
       <c r="Z905" s="18"/>
       <c r="AA905" s="15"/>
     </row>
-    <row r="906" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="906" spans="25:27" ht="12">
       <c r="Y906" s="15"/>
       <c r="Z906" s="18"/>
       <c r="AA906" s="15"/>
     </row>
-    <row r="907" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="907" spans="25:27" ht="12">
       <c r="Y907" s="15"/>
       <c r="Z907" s="18"/>
       <c r="AA907" s="15"/>
     </row>
-    <row r="908" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="908" spans="25:27" ht="12">
       <c r="Y908" s="15"/>
       <c r="Z908" s="18"/>
       <c r="AA908" s="15"/>
     </row>
-    <row r="909" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="909" spans="25:27" ht="12">
       <c r="Y909" s="15"/>
       <c r="Z909" s="18"/>
       <c r="AA909" s="15"/>
     </row>
-    <row r="910" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="910" spans="25:27" ht="12">
       <c r="Y910" s="15"/>
       <c r="Z910" s="18"/>
       <c r="AA910" s="15"/>
     </row>
-    <row r="911" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="911" spans="25:27" ht="12">
       <c r="Y911" s="15"/>
       <c r="Z911" s="18"/>
       <c r="AA911" s="15"/>
     </row>
-    <row r="912" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="912" spans="25:27" ht="12">
       <c r="Y912" s="15"/>
       <c r="Z912" s="18"/>
       <c r="AA912" s="15"/>
     </row>
-    <row r="913" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="913" spans="25:27" ht="12">
       <c r="Y913" s="15"/>
       <c r="Z913" s="18"/>
       <c r="AA913" s="15"/>
     </row>
-    <row r="914" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="914" spans="25:27" ht="12">
       <c r="Y914" s="15"/>
       <c r="Z914" s="18"/>
       <c r="AA914" s="15"/>
     </row>
-    <row r="915" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="915" spans="25:27" ht="12">
       <c r="Y915" s="15"/>
       <c r="Z915" s="18"/>
       <c r="AA915" s="15"/>
     </row>
-    <row r="916" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="916" spans="25:27" ht="12">
       <c r="Y916" s="15"/>
       <c r="Z916" s="18"/>
       <c r="AA916" s="15"/>
     </row>
-    <row r="917" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="917" spans="25:27" ht="12">
       <c r="Y917" s="15"/>
       <c r="Z917" s="18"/>
       <c r="AA917" s="15"/>
     </row>
-    <row r="918" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="918" spans="25:27" ht="12">
       <c r="Y918" s="15"/>
       <c r="Z918" s="18"/>
       <c r="AA918" s="15"/>
     </row>
-    <row r="919" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="919" spans="25:27" ht="12">
       <c r="Y919" s="15"/>
       <c r="Z919" s="18"/>
       <c r="AA919" s="15"/>
     </row>
-    <row r="920" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="920" spans="25:27" ht="12">
       <c r="Y920" s="15"/>
       <c r="Z920" s="18"/>
       <c r="AA920" s="15"/>
     </row>
-    <row r="921" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="921" spans="25:27" ht="12">
       <c r="Y921" s="15"/>
       <c r="Z921" s="18"/>
       <c r="AA921" s="15"/>
     </row>
-    <row r="922" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="922" spans="25:27" ht="12">
       <c r="Y922" s="15"/>
       <c r="Z922" s="18"/>
       <c r="AA922" s="15"/>
     </row>
-    <row r="923" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="923" spans="25:27" ht="12">
       <c r="Y923" s="15"/>
       <c r="Z923" s="18"/>
       <c r="AA923" s="15"/>
     </row>
-    <row r="924" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="924" spans="25:27" ht="12">
       <c r="Y924" s="15"/>
       <c r="Z924" s="18"/>
       <c r="AA924" s="15"/>
     </row>
-    <row r="925" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="925" spans="25:27" ht="12">
       <c r="Y925" s="15"/>
       <c r="Z925" s="18"/>
       <c r="AA925" s="15"/>
     </row>
-    <row r="926" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="926" spans="25:27" ht="12">
       <c r="Y926" s="15"/>
       <c r="Z926" s="18"/>
       <c r="AA926" s="15"/>
     </row>
-    <row r="927" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="927" spans="25:27" ht="12">
       <c r="Y927" s="15"/>
       <c r="Z927" s="18"/>
       <c r="AA927" s="15"/>
     </row>
-    <row r="928" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="928" spans="25:27" ht="12">
       <c r="Y928" s="15"/>
       <c r="Z928" s="18"/>
       <c r="AA928" s="15"/>
     </row>
-    <row r="929" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="929" spans="25:27" ht="12">
       <c r="Y929" s="15"/>
       <c r="Z929" s="18"/>
       <c r="AA929" s="15"/>
     </row>
-    <row r="930" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="930" spans="25:27" ht="12">
       <c r="Y930" s="15"/>
       <c r="Z930" s="18"/>
       <c r="AA930" s="15"/>
     </row>
-    <row r="931" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="931" spans="25:27" ht="12">
       <c r="Y931" s="15"/>
       <c r="Z931" s="18"/>
       <c r="AA931" s="15"/>
     </row>
-    <row r="932" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="25:27" ht="12">
       <c r="Y932" s="15"/>
       <c r="Z932" s="18"/>
       <c r="AA932" s="15"/>
     </row>
-    <row r="933" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="933" spans="25:27" ht="12">
       <c r="Y933" s="15"/>
       <c r="Z933" s="18"/>
       <c r="AA933" s="15"/>
     </row>
-    <row r="934" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="934" spans="25:27" ht="12">
       <c r="Y934" s="15"/>
       <c r="Z934" s="18"/>
       <c r="AA934" s="15"/>
     </row>
-    <row r="935" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="935" spans="25:27" ht="12">
       <c r="Y935" s="15"/>
       <c r="Z935" s="18"/>
       <c r="AA935" s="15"/>
     </row>
-    <row r="936" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="936" spans="25:27" ht="12">
       <c r="Y936" s="15"/>
       <c r="Z936" s="18"/>
       <c r="AA936" s="15"/>
     </row>
-    <row r="937" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="937" spans="25:27" ht="12">
       <c r="Y937" s="15"/>
       <c r="Z937" s="18"/>
       <c r="AA937" s="15"/>
     </row>
-    <row r="938" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="938" spans="25:27" ht="12">
       <c r="Y938" s="15"/>
       <c r="Z938" s="18"/>
       <c r="AA938" s="15"/>
     </row>
-    <row r="939" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="939" spans="25:27" ht="12">
       <c r="Y939" s="15"/>
       <c r="Z939" s="18"/>
       <c r="AA939" s="15"/>
     </row>
-    <row r="940" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="940" spans="25:27" ht="12">
       <c r="Y940" s="15"/>
       <c r="Z940" s="18"/>
       <c r="AA940" s="15"/>
     </row>
-    <row r="941" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="941" spans="25:27" ht="12">
       <c r="Y941" s="15"/>
       <c r="Z941" s="18"/>
       <c r="AA941" s="15"/>
     </row>
-    <row r="942" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="942" spans="25:27" ht="12">
       <c r="Y942" s="15"/>
       <c r="Z942" s="18"/>
       <c r="AA942" s="15"/>
     </row>
-    <row r="943" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="943" spans="25:27" ht="12">
       <c r="Y943" s="15"/>
       <c r="Z943" s="18"/>
       <c r="AA943" s="15"/>
     </row>
-    <row r="944" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="944" spans="25:27" ht="12">
       <c r="Y944" s="15"/>
       <c r="Z944" s="18"/>
       <c r="AA944" s="15"/>
     </row>
-    <row r="945" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="945" spans="25:27" ht="12">
       <c r="Y945" s="15"/>
       <c r="Z945" s="18"/>
       <c r="AA945" s="15"/>
     </row>
-    <row r="946" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="946" spans="25:27" ht="12">
       <c r="Y946" s="15"/>
       <c r="Z946" s="18"/>
       <c r="AA946" s="15"/>
     </row>
-    <row r="947" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="947" spans="25:27" ht="12">
       <c r="Y947" s="15"/>
       <c r="Z947" s="18"/>
       <c r="AA947" s="15"/>
     </row>
-    <row r="948" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="948" spans="25:27" ht="12">
       <c r="Y948" s="15"/>
       <c r="Z948" s="18"/>
       <c r="AA948" s="15"/>
     </row>
-    <row r="949" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="949" spans="25:27" ht="12">
       <c r="Y949" s="15"/>
       <c r="Z949" s="18"/>
       <c r="AA949" s="15"/>
     </row>
-    <row r="950" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="950" spans="25:27" ht="12">
       <c r="Y950" s="15"/>
       <c r="Z950" s="18"/>
       <c r="AA950" s="15"/>
     </row>
-    <row r="951" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="951" spans="25:27" ht="12">
       <c r="Y951" s="15"/>
       <c r="Z951" s="18"/>
       <c r="AA951" s="15"/>
     </row>
-    <row r="952" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="952" spans="25:27" ht="12">
       <c r="Y952" s="15"/>
       <c r="Z952" s="18"/>
       <c r="AA952" s="15"/>
     </row>
-    <row r="953" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="953" spans="25:27" ht="12">
       <c r="Y953" s="15"/>
       <c r="Z953" s="18"/>
       <c r="AA953" s="15"/>
     </row>
-    <row r="954" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="954" spans="25:27" ht="12">
       <c r="Y954" s="15"/>
       <c r="Z954" s="18"/>
       <c r="AA954" s="15"/>
     </row>
-    <row r="955" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="955" spans="25:27" ht="12">
       <c r="Y955" s="15"/>
       <c r="Z955" s="18"/>
       <c r="AA955" s="15"/>
     </row>
-    <row r="956" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="956" spans="25:27" ht="12">
       <c r="Y956" s="15"/>
       <c r="Z956" s="18"/>
       <c r="AA956" s="15"/>
     </row>
-    <row r="957" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="957" spans="25:27" ht="12">
       <c r="Y957" s="15"/>
       <c r="Z957" s="18"/>
       <c r="AA957" s="15"/>
     </row>
-    <row r="958" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="958" spans="25:27" ht="12">
       <c r="Y958" s="15"/>
       <c r="Z958" s="18"/>
       <c r="AA958" s="15"/>
     </row>
-    <row r="959" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="959" spans="25:27" ht="12">
       <c r="Y959" s="15"/>
       <c r="Z959" s="18"/>
       <c r="AA959" s="15"/>
     </row>
-    <row r="960" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="960" spans="25:27" ht="12">
       <c r="Y960" s="15"/>
       <c r="Z960" s="18"/>
       <c r="AA960" s="15"/>
     </row>
-    <row r="961" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="961" spans="25:27" ht="12">
       <c r="Y961" s="15"/>
       <c r="Z961" s="18"/>
       <c r="AA961" s="15"/>
     </row>
-    <row r="962" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="962" spans="25:27" ht="12">
       <c r="Y962" s="15"/>
       <c r="Z962" s="18"/>
       <c r="AA962" s="15"/>
     </row>
-    <row r="963" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="963" spans="25:27" ht="12">
       <c r="Y963" s="15"/>
       <c r="Z963" s="18"/>
       <c r="AA963" s="15"/>
     </row>
-    <row r="964" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="964" spans="25:27" ht="12">
       <c r="Y964" s="15"/>
       <c r="Z964" s="18"/>
       <c r="AA964" s="15"/>
     </row>
-    <row r="965" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="965" spans="25:27" ht="12">
       <c r="Y965" s="15"/>
       <c r="Z965" s="18"/>
       <c r="AA965" s="15"/>
     </row>
-    <row r="966" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="966" spans="25:27" ht="12">
       <c r="Y966" s="15"/>
       <c r="Z966" s="18"/>
       <c r="AA966" s="15"/>
     </row>
-    <row r="967" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="967" spans="25:27" ht="12">
       <c r="Y967" s="15"/>
       <c r="Z967" s="18"/>
       <c r="AA967" s="15"/>
     </row>
-    <row r="968" spans="25:27" ht="13" x14ac:dyDescent="0.15">
+    <row r="968" spans="25:27" ht="12">
       <c r="Y968" s="15"/>
       <c r="Z968" s="18"/>
       <c r="AA968" s="15"/>
@@ -12965,5 +12824,10 @@
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/processed_data/participants_cleaned/UPF_Barcelona_participant_data.xlsx
+++ b/processed_data/participants_cleaned/UPF_Barcelona_participant_data.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="980" windowWidth="29840" windowHeight="23300"/>
+    <workbookView xWindow="7080" yWindow="5200" windowWidth="29840" windowHeight="23300"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -899,7 +899,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -914,7 +914,7 @@
   <dimension ref="A1:BF968"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="A87" sqref="A68:XFD87"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>53</v>
